--- a/Michigan Covid19 Tracker 032120.xlsx
+++ b/Michigan Covid19 Tracker 032120.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacData/Users/RDT1/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD75C7D-A1DB-2148-895F-AF1DD54410A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E47AB8A-BA75-7F4D-A35D-C11A89AD4178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="0" windowWidth="25440" windowHeight="16000" xr2:uid="{37D8E4B2-2A40-1E49-9F24-F0D9EBAB6DE3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="274">
   <si>
     <t>https://www.oakgov.com/health/information/covid-19/Pages/default.aspx</t>
   </si>
@@ -841,26 +841,36 @@
   </si>
   <si>
     <t>Doubles
-every day</t>
+every 1.5 days</t>
+  </si>
+  <si>
+    <t>FL Case Count</t>
+  </si>
+  <si>
+    <t>https://floridahealthcovid19.gov</t>
+  </si>
+  <si>
+    <t>Note: Michigan data shown here as EOD (prior day).  However, Mich has changed their reporting to as of 10AM same day.</t>
+  </si>
+  <si>
+    <t>This will cause a small day-day lag/inconsistencey with other sources, since I have just left it (incorrectly) as prior EOD.</t>
+  </si>
+  <si>
+    <t>The counts are the same and the "curve" is basically the same, just skewed by a day (10 hrs).</t>
   </si>
   <si>
     <t>Doubles
-every 1.5 days</t>
-  </si>
-  <si>
-    <t>FL Case Count</t>
-  </si>
-  <si>
-    <t>https://floridahealthcovid19.gov</t>
-  </si>
-  <si>
-    <t>Note: Michigan data shown here as EOD (prior day).  However, Mich has changed their reporting to as of 10AM same day.</t>
-  </si>
-  <si>
-    <t>This will cause a small day-day lag/inconsistencey with other sources, since I have just left it (incorrectly) as prior EOD.</t>
-  </si>
-  <si>
-    <t>The counts are the same and the "curve" is basically the same, just skewed by a day (10 hrs).</t>
+every days</t>
+  </si>
+  <si>
+    <t>Total 
+Cuml Deaths</t>
+  </si>
+  <si>
+    <t>Daily Death Growth Rate Multipler</t>
+  </si>
+  <si>
+    <t>Cuml Death Growth Rate Multipler</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1090,13 +1100,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1191,12 +1221,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1229,6 +1255,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1275,99 +1312,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D9A98E-0439-E944-8F63-5E39675C651B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="7518400"/>
-          <a:ext cx="5194300" cy="3898900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D297A04D-3A84-7D4B-8BD7-3449DD9B5AA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="203200"/>
-          <a:ext cx="5194300" cy="3606800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1669,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA23B903-2543-2F47-BCA6-1BBD6579E86D}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1679,8 +1623,7 @@
     <col min="4" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="11"/>
+    <col min="13" max="13" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1719,46 +1662,55 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="56"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="33" t="s">
         <v>261</v>
       </c>
@@ -1768,20 +1720,23 @@
       <c r="H9" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="J9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>264</v>
       </c>
+      <c r="J9" s="48" t="s">
+        <v>270</v>
+      </c>
       <c r="K9" s="33"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="59"/>
     </row>
     <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="40">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="38">
         <v>1.26</v>
       </c>
       <c r="G10" s="5">
@@ -1799,6 +1754,9 @@
       <c r="K10" s="4">
         <v>2.25</v>
       </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -1809,8 +1767,8 @@
         <v>1</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="41">
+      <c r="E11" s="42"/>
+      <c r="F11" s="39">
         <v>1</v>
       </c>
       <c r="G11" s="15">
@@ -1828,7 +1786,11 @@
       <c r="K11" s="15">
         <v>1</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="L11" s="50">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -1845,11 +1807,11 @@
         <f>IF(C12&gt;0,C12/C11,"-")</f>
         <v>2</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="43">
         <f t="shared" ref="E12:E15" si="0">IF(C12&gt;0,(C12/C$11)^(1/B12),"-")</f>
         <v>2</v>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F12" s="39" t="str">
         <f t="shared" ref="F12:F17" si="1">IF($C13&gt;0,"",IF($C12&gt;0,$C12,F11*F$10))</f>
         <v/>
       </c>
@@ -1873,10 +1835,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="L12" s="50">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19" t="str">
+        <f>IF(L12&gt;0,L12/L11,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="N12" s="43" t="str">
+        <f t="shared" ref="N12:N15" si="3">IF(L12&gt;0,(L12/L$11)^(1/K12),"-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <f t="shared" ref="A13:A40" si="3">A12+1</f>
+        <f t="shared" ref="A13:A40" si="4">A12+1</f>
         <v>43902</v>
       </c>
       <c r="B13" s="9">
@@ -1887,14 +1860,14 @@
         <v>12</v>
       </c>
       <c r="D13" s="19">
-        <f t="shared" ref="D13:D32" si="4">IF(C13&gt;0,C13/C12,"-")</f>
+        <f t="shared" ref="D13:D32" si="5">IF(C13&gt;0,C13/C12,"-")</f>
         <v>6</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="43">
         <f t="shared" si="0"/>
         <v>3.4641016151377544</v>
       </c>
-      <c r="F13" s="41" t="str">
+      <c r="F13" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1918,29 +1891,39 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N13" s="11"/>
+      <c r="L13" s="50">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19" t="str">
+        <f t="shared" ref="M13:M21" si="6">IF(L13&gt;0,L13/L12,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="N13" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43903</v>
       </c>
       <c r="B14" s="26">
-        <f t="shared" ref="B14:B40" si="5">B13+1</f>
+        <f t="shared" ref="B14:B40" si="7">B13+1</f>
         <v>3</v>
       </c>
       <c r="C14" s="27">
         <v>26</v>
       </c>
       <c r="D14" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="44">
         <f t="shared" si="0"/>
         <v>2.9624960684073702</v>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="F14" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1964,1160 +1947,1403 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="L14" s="50">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="N14" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43904</v>
       </c>
       <c r="B15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C15" s="16">
         <v>33</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2692307692307692</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="45">
         <f t="shared" si="0"/>
         <v>2.3967817269284302</v>
       </c>
-      <c r="F15" s="42" t="str">
+      <c r="F15" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="23" t="str">
-        <f t="shared" ref="G15:K17" si="6">IF($C16&gt;0,"",IF($C15&gt;0,$C15,G14*G$10))</f>
+        <f t="shared" ref="G15:K17" si="8">IF($C16&gt;0,"",IF($C15&gt;0,$C15,G14*G$10))</f>
         <v/>
       </c>
       <c r="H15" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I15" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J15" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K15" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L15" s="50">
+        <v>0</v>
+      </c>
+      <c r="M15" s="20" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I15" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J15" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K15" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N15" s="11"/>
+        <v>-</v>
+      </c>
+      <c r="N15" s="45" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43905</v>
       </c>
       <c r="B16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C16" s="16">
         <v>53</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.606060606060606</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="45">
         <f>IF(C16&gt;0,(C16/C$11)^(1/B16),"-")</f>
         <v>2.2123568222761167</v>
       </c>
-      <c r="F16" s="42" t="str">
+      <c r="F16" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G16" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H16" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I16" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J16" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K16" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L16" s="50">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H16" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I16" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J16" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K16" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="N16" s="45" t="str">
+        <f>IF(L16&gt;0,(L16/L$11)^(1/K16),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43906</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C17" s="14">
         <v>65</v>
       </c>
       <c r="D17" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2264150943396226</v>
       </c>
-      <c r="E17" s="45">
-        <f t="shared" ref="E17:E32" si="7">IF(C17&gt;0,(C17/C$11)^(1/B17),"-")</f>
+      <c r="E17" s="43">
+        <f t="shared" ref="E17:E32" si="9">IF(C17&gt;0,(C17/C$11)^(1/B17),"-")</f>
         <v>2.0051747451504212</v>
       </c>
-      <c r="F17" s="41" t="str">
+      <c r="F17" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G17" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H17" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I17" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J17" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K17" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L17" s="50">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H17" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I17" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J17" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K17" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N17" s="11"/>
+        <v>-</v>
+      </c>
+      <c r="N17" s="43" t="str">
+        <f t="shared" ref="N17:N21" si="10">IF(L17&gt;0,(L17/L$11)^(1/K17),"-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43907</v>
       </c>
       <c r="B18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C18" s="14">
         <v>110</v>
       </c>
       <c r="D18" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6923076923076923</v>
       </c>
-      <c r="E18" s="45">
-        <f t="shared" si="7"/>
+      <c r="E18" s="43">
+        <f t="shared" si="9"/>
         <v>1.9571653865984975</v>
       </c>
-      <c r="F18" s="41" t="str">
-        <f t="shared" ref="F18:F40" si="8">IF($C19&gt;0,"",IF($C18&gt;0,$C18,F17*F$10))</f>
+      <c r="F18" s="39" t="str">
+        <f t="shared" ref="F18:F40" si="11">IF($C19&gt;0,"",IF($C18&gt;0,$C18,F17*F$10))</f>
         <v/>
       </c>
       <c r="G18" s="15" t="str">
-        <f t="shared" ref="G18:G40" si="9">IF($C19&gt;0,"",IF($C18&gt;0,$C18,G17*G$10))</f>
+        <f t="shared" ref="G18:G40" si="12">IF($C19&gt;0,"",IF($C18&gt;0,$C18,G17*G$10))</f>
         <v/>
       </c>
       <c r="H18" s="15" t="str">
-        <f t="shared" ref="H18:H40" si="10">IF($C19&gt;0,"",IF($C18&gt;0,$C18,H17*H$10))</f>
+        <f t="shared" ref="H18:H40" si="13">IF($C19&gt;0,"",IF($C18&gt;0,$C18,H17*H$10))</f>
         <v/>
       </c>
       <c r="I18" s="15" t="str">
-        <f t="shared" ref="I18:I40" si="11">IF($C19&gt;0,"",IF($C18&gt;0,$C18,I17*I$10))</f>
+        <f t="shared" ref="I18:I40" si="14">IF($C19&gt;0,"",IF($C18&gt;0,$C18,I17*I$10))</f>
         <v/>
       </c>
       <c r="J18" s="15" t="str">
-        <f t="shared" ref="J18:J40" si="12">IF($C19&gt;0,"",IF($C18&gt;0,$C18,J17*J$10))</f>
+        <f t="shared" ref="J18:J40" si="15">IF($C19&gt;0,"",IF($C18&gt;0,$C18,J17*J$10))</f>
         <v/>
       </c>
       <c r="K18" s="15" t="str">
-        <f t="shared" ref="K18:K40" si="13">IF($C19&gt;0,"",IF($C18&gt;0,$C18,K17*K$10))</f>
+        <f t="shared" ref="K18:K40" si="16">IF($C19&gt;0,"",IF($C18&gt;0,$C18,K17*K$10))</f>
         <v/>
       </c>
-      <c r="N18" s="11"/>
+      <c r="L18" s="50">
+        <v>1</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43908</v>
       </c>
       <c r="B19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C19" s="14">
         <v>334</v>
       </c>
       <c r="D19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0363636363636362</v>
       </c>
-      <c r="E19" s="45">
-        <f t="shared" si="7"/>
+      <c r="E19" s="43">
+        <f t="shared" si="9"/>
         <v>2.0676084974034281</v>
       </c>
-      <c r="F19" s="41" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G19" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H19" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I19" s="15" t="str">
+      <c r="F19" s="39" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J19" s="15" t="str">
+      <c r="G19" s="15" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K19" s="15" t="str">
+      <c r="H19" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="N19" s="11"/>
+      <c r="I19" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J19" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K19" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L19" s="50">
+        <v>1</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="43">
+        <f>IF(L19&gt;0,(L19/L$19)^(1/(B19-7)),"-")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43909</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C20" s="14">
         <v>549</v>
       </c>
       <c r="D20" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6437125748502994</v>
       </c>
-      <c r="E20" s="45">
-        <f t="shared" si="7"/>
+      <c r="E20" s="43">
+        <f t="shared" si="9"/>
         <v>2.0155655516951083</v>
       </c>
-      <c r="F20" s="41" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G20" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H20" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I20" s="15" t="str">
+      <c r="F20" s="39" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J20" s="15" t="str">
+      <c r="G20" s="15" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K20" s="15" t="str">
+      <c r="H20" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="N20" s="11"/>
+      <c r="I20" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J20" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K20" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L20" s="50">
+        <v>2</v>
+      </c>
+      <c r="M20" s="19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N20" s="43">
+        <f>IF(L20&gt;0,(L20/L$19)^(1/(B20-7)),"-")</f>
+        <v>1.4142135623730951</v>
+      </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43910</v>
       </c>
       <c r="B21" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C21" s="27">
         <v>787</v>
       </c>
       <c r="D21" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4335154826958105</v>
       </c>
-      <c r="E21" s="46">
-        <f t="shared" si="7"/>
+      <c r="E21" s="44">
+        <f t="shared" si="9"/>
         <v>1.9480382193974053</v>
       </c>
-      <c r="F21" s="43">
-        <f t="shared" si="8"/>
-        <v>787</v>
-      </c>
-      <c r="G21" s="30">
-        <f t="shared" si="9"/>
-        <v>787</v>
-      </c>
-      <c r="H21" s="30">
-        <f t="shared" si="10"/>
-        <v>787</v>
-      </c>
-      <c r="I21" s="30">
+      <c r="F21" s="41">
         <f t="shared" si="11"/>
         <v>787</v>
       </c>
-      <c r="J21" s="30">
+      <c r="G21" s="30">
         <f t="shared" si="12"/>
         <v>787</v>
       </c>
-      <c r="K21" s="30">
+      <c r="H21" s="30">
         <f t="shared" si="13"/>
         <v>787</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="I21" s="30">
+        <f t="shared" si="14"/>
+        <v>787</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="15"/>
+        <v>787</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" si="16"/>
+        <v>787</v>
+      </c>
+      <c r="L21" s="50">
+        <v>3</v>
+      </c>
+      <c r="M21" s="28">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="43">
+        <f>IF(L21&gt;0,(L21/L$19)^(1/(B21-7)),"-")</f>
+        <v>1.4422495703074083</v>
+      </c>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43911</v>
       </c>
       <c r="B22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E22" s="47" t="str">
-        <f t="shared" si="7"/>
+      <c r="E22" s="45" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F22" s="42">
-        <f t="shared" si="8"/>
+      <c r="F22" s="40">
+        <f t="shared" si="11"/>
         <v>991.62</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1038.8400000000001</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1113.605</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1247.395</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1574</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1770.75</v>
       </c>
-      <c r="N22" s="11"/>
+      <c r="L22" s="50">
+        <v>5</v>
+      </c>
+      <c r="M22" s="28">
+        <f t="shared" ref="M22:M29" si="17">IF(L22&gt;0,L22/L21,"-")</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N22" s="43">
+        <f>IF(L22&gt;0,(L22/L$19)^(1/(B22-7)),"-")</f>
+        <v>1.4953487812212205</v>
+      </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43912</v>
       </c>
       <c r="B23" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E23" s="47" t="str">
-        <f t="shared" si="7"/>
+      <c r="E23" s="45" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F23" s="42">
-        <f t="shared" si="8"/>
+      <c r="F23" s="40">
+        <f t="shared" si="11"/>
         <v>1249.4412</v>
       </c>
       <c r="G23" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1371.2688000000003</v>
       </c>
       <c r="H23" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1575.7510750000001</v>
       </c>
       <c r="I23" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1977.121075</v>
       </c>
       <c r="J23" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3148</v>
       </c>
       <c r="K23" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3984.1875</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="28" t="str">
+        <f t="shared" ref="M23:M40" si="18">IF(L23&gt;0,L23/L22,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="N23" s="43" t="str">
+        <f t="shared" ref="N23:N40" si="19">IF(L23&gt;0,(L23/L$19)^(1/(B23-7)),"-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43913</v>
       </c>
       <c r="B24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E24" s="45" t="str">
-        <f t="shared" si="7"/>
+      <c r="E24" s="43" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F24" s="41">
-        <f t="shared" si="8"/>
+      <c r="F24" s="39">
+        <f t="shared" si="11"/>
         <v>1574.295912</v>
       </c>
       <c r="G24" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1810.0748160000005</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2229.6877711250004</v>
       </c>
       <c r="I24" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3133.7369038749998</v>
       </c>
       <c r="J24" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6296</v>
       </c>
       <c r="K24" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8964.421875</v>
       </c>
-      <c r="N24" s="11"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N24" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43914</v>
       </c>
       <c r="B25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E25" s="45" t="str">
-        <f t="shared" si="7"/>
+      <c r="E25" s="43" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F25" s="41">
-        <f t="shared" si="8"/>
+      <c r="F25" s="39">
+        <f t="shared" si="11"/>
         <v>1983.61284912</v>
       </c>
       <c r="G25" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2389.2987571200006</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3155.0081961418755</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4966.972992641875</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12592</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>20169.94921875</v>
       </c>
-      <c r="N25" s="11"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N25" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43915</v>
       </c>
       <c r="B26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E26" s="45" t="str">
-        <f t="shared" si="7"/>
+      <c r="E26" s="43" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F26" s="41">
-        <f t="shared" si="8"/>
+      <c r="F26" s="39">
+        <f t="shared" si="11"/>
         <v>2499.3521898911999</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3153.8743593984009</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4464.3365975407542</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7872.6521933373715</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>25184</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45382.3857421875</v>
       </c>
-      <c r="N26" s="11"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N26" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43916</v>
       </c>
       <c r="B27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E27" s="45" t="str">
-        <f t="shared" si="7"/>
+      <c r="E27" s="43" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F27" s="41">
-        <f t="shared" si="8"/>
+      <c r="F27" s="39">
+        <f t="shared" si="11"/>
         <v>3149.1837592629117</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4163.1141544058892</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6317.0362855201674</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12478.153726439734</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>50368</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>102110.36791992188</v>
       </c>
-      <c r="N27" s="11"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N27" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43917</v>
       </c>
       <c r="B28" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E28" s="46" t="str">
-        <f t="shared" si="7"/>
+      <c r="E28" s="44" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F28" s="43">
-        <f t="shared" si="8"/>
+      <c r="F28" s="41">
+        <f t="shared" si="11"/>
         <v>3967.971536671269</v>
       </c>
       <c r="G28" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5495.3106838157737</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8938.6063440110374</v>
       </c>
       <c r="I28" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>19777.873656406977</v>
       </c>
       <c r="J28" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100736</v>
       </c>
       <c r="K28" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>229748.32781982422</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N28" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43918</v>
       </c>
       <c r="B29" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E29" s="47" t="str">
-        <f t="shared" si="7"/>
+      <c r="E29" s="45" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F29" s="42">
-        <f t="shared" si="8"/>
+      <c r="F29" s="40">
+        <f t="shared" si="11"/>
         <v>4999.6441362057985</v>
       </c>
       <c r="G29" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7253.8101026368213</v>
       </c>
       <c r="H29" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12648.127976775619</v>
       </c>
       <c r="I29" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>31347.929745405057</v>
       </c>
       <c r="J29" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>201472</v>
       </c>
       <c r="K29" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>516933.73759460449</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N29" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43919</v>
       </c>
       <c r="B30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E30" s="47" t="str">
-        <f t="shared" si="7"/>
+      <c r="E30" s="45" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F30" s="42">
-        <f t="shared" si="8"/>
+      <c r="F30" s="40">
+        <f t="shared" si="11"/>
         <v>6299.5516116193066</v>
       </c>
       <c r="G30" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9575.0293354806054</v>
       </c>
       <c r="H30" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>17897.1010871375</v>
       </c>
       <c r="I30" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>49686.468646467016</v>
       </c>
       <c r="J30" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>402944</v>
       </c>
       <c r="K30" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1163100.9095878601</v>
       </c>
-      <c r="N30" s="11"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N30" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43920</v>
       </c>
       <c r="B31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E31" s="45" t="str">
-        <f t="shared" si="7"/>
+      <c r="E31" s="43" t="str">
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="F31" s="41">
-        <f t="shared" si="8"/>
+      <c r="F31" s="39">
+        <f t="shared" si="11"/>
         <v>7937.4350306403267</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12639.038722834399</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25324.398038299565</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>78753.052804650215</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>805888</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2616977.0465726852</v>
+      </c>
+      <c r="L31" s="51"/>
+      <c r="M31" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N31" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43921</v>
       </c>
       <c r="B32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E32" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="F32" s="39">
+        <f t="shared" si="11"/>
+        <v>10001.168138606812</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="12"/>
+        <v>16683.531114141406</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="13"/>
+        <v>35834.023224193887</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="14"/>
+        <v>124823.58869537059</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="15"/>
+        <v>1611776</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="16"/>
+        <v>5888198.3547885418</v>
+      </c>
+      <c r="L32" s="51"/>
+      <c r="M32" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N32" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E32" s="45" t="str">
+        <v>43922</v>
+      </c>
+      <c r="B33" s="9">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F32" s="41">
-        <f t="shared" si="8"/>
-        <v>10001.168138606812</v>
-      </c>
-      <c r="G32" s="15">
-        <f t="shared" si="9"/>
-        <v>16683.531114141406</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" si="10"/>
-        <v>35834.023224193887</v>
-      </c>
-      <c r="I32" s="15">
-        <f t="shared" si="11"/>
-        <v>124823.58869537059</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="12"/>
-        <v>1611776</v>
-      </c>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
-        <f t="shared" si="3"/>
-        <v>43922</v>
-      </c>
-      <c r="B33" s="9">
-        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="19" t="str">
-        <f t="shared" ref="D33:D40" si="14">IF(C33&gt;0,C33/C32,"-")</f>
+        <f t="shared" ref="D33:D40" si="20">IF(C33&gt;0,C33/C32,"-")</f>
         <v>-</v>
       </c>
-      <c r="E33" s="45" t="str">
-        <f t="shared" ref="E33:E40" si="15">IF(C33&gt;0,(C33/C$11)^(1/B33),"-")</f>
+      <c r="E33" s="43" t="str">
+        <f t="shared" ref="E33:E40" si="21">IF(C33&gt;0,(C33/C$11)^(1/B33),"-")</f>
         <v>-</v>
       </c>
-      <c r="F33" s="41">
-        <f t="shared" si="8"/>
+      <c r="F33" s="39">
+        <f t="shared" si="11"/>
         <v>12601.471854644584</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>22022.261070666656</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>50705.142862234352</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>197845.38808216239</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3223552</v>
       </c>
-      <c r="K33" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="15"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N33" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43923</v>
       </c>
       <c r="B34" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="E34" s="43" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="F34" s="39">
+        <f t="shared" si="11"/>
+        <v>15877.854536852175</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="12"/>
+        <v>29069.384613279988</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="13"/>
+        <v>71747.777150061607</v>
+      </c>
+      <c r="I34" s="15">
         <f t="shared" si="14"/>
+        <v>313584.94011022738</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="15"/>
+        <v>6447104</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="51"/>
+      <c r="M34" s="28" t="str">
+        <f t="shared" si="18"/>
         <v>-</v>
       </c>
-      <c r="E34" s="45" t="str">
-        <f t="shared" si="15"/>
+      <c r="N34" s="43" t="str">
+        <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="F34" s="41">
-        <f t="shared" si="8"/>
-        <v>15877.854536852175</v>
-      </c>
-      <c r="G34" s="15">
-        <f t="shared" si="9"/>
-        <v>29069.384613279988</v>
-      </c>
-      <c r="H34" s="15">
-        <f t="shared" si="10"/>
-        <v>71747.777150061607</v>
-      </c>
-      <c r="I34" s="15">
-        <f t="shared" si="11"/>
-        <v>313584.94011022738</v>
-      </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43924</v>
       </c>
       <c r="B35" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="E35" s="43" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="F35" s="39">
+        <f t="shared" si="11"/>
+        <v>20006.096716433742</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="12"/>
+        <v>38371.587689529588</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="13"/>
+        <v>101523.10466733717</v>
+      </c>
+      <c r="I35" s="15">
         <f t="shared" si="14"/>
+        <v>497032.13007471041</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="51"/>
+      <c r="M35" s="28" t="str">
+        <f t="shared" si="18"/>
         <v>-</v>
       </c>
-      <c r="E35" s="45" t="str">
-        <f t="shared" si="15"/>
+      <c r="N35" s="43" t="str">
+        <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="F35" s="41">
-        <f t="shared" si="8"/>
-        <v>20006.096716433742</v>
-      </c>
-      <c r="G35" s="15">
-        <f t="shared" si="9"/>
-        <v>38371.587689529588</v>
-      </c>
-      <c r="H35" s="15">
-        <f t="shared" si="10"/>
-        <v>101523.10466733717</v>
-      </c>
-      <c r="I35" s="15">
-        <f t="shared" si="11"/>
-        <v>497032.13007471041</v>
-      </c>
-      <c r="J35" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43925</v>
       </c>
       <c r="B36" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="20" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="E36" s="45" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="11"/>
+        <v>25207.681862706515</v>
+      </c>
+      <c r="G36" s="23">
+        <f t="shared" si="12"/>
+        <v>50650.495750179056</v>
+      </c>
+      <c r="H36" s="23">
+        <f t="shared" si="13"/>
+        <v>143655.19310428211</v>
+      </c>
+      <c r="I36" s="23">
         <f t="shared" si="14"/>
+        <v>787795.92616841593</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="51"/>
+      <c r="M36" s="28" t="str">
+        <f t="shared" si="18"/>
         <v>-</v>
       </c>
-      <c r="E36" s="47" t="str">
-        <f t="shared" si="15"/>
+      <c r="N36" s="43" t="str">
+        <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="F36" s="42">
-        <f t="shared" si="8"/>
-        <v>25207.681862706515</v>
-      </c>
-      <c r="G36" s="23">
-        <f t="shared" si="9"/>
-        <v>50650.495750179056</v>
-      </c>
-      <c r="H36" s="23">
-        <f t="shared" si="10"/>
-        <v>143655.19310428211</v>
-      </c>
-      <c r="I36" s="23">
-        <f t="shared" si="11"/>
-        <v>787795.92616841593</v>
-      </c>
-      <c r="J36" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43926</v>
       </c>
       <c r="B37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="20" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="E37" s="45" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="11"/>
+        <v>31761.679147010211</v>
+      </c>
+      <c r="G37" s="23">
+        <f t="shared" si="12"/>
+        <v>66858.654390236363</v>
+      </c>
+      <c r="H37" s="23">
+        <f t="shared" si="13"/>
+        <v>203272.09824255918</v>
+      </c>
+      <c r="I37" s="23">
         <f t="shared" si="14"/>
+        <v>1248656.5429769391</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="51"/>
+      <c r="M37" s="28" t="str">
+        <f t="shared" si="18"/>
         <v>-</v>
       </c>
-      <c r="E37" s="47" t="str">
-        <f t="shared" si="15"/>
+      <c r="N37" s="43" t="str">
+        <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="F37" s="42">
-        <f t="shared" si="8"/>
-        <v>31761.679147010211</v>
-      </c>
-      <c r="G37" s="23">
-        <f t="shared" si="9"/>
-        <v>66858.654390236363</v>
-      </c>
-      <c r="H37" s="23">
-        <f t="shared" si="10"/>
-        <v>203272.09824255918</v>
-      </c>
-      <c r="I37" s="23">
-        <f t="shared" si="11"/>
-        <v>1248656.5429769391</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43927</v>
       </c>
       <c r="B38" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="E38" s="43" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="F38" s="39">
+        <f t="shared" si="11"/>
+        <v>40019.715725232869</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="12"/>
+        <v>88253.423795112001</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="13"/>
+        <v>287630.01901322126</v>
+      </c>
+      <c r="I38" s="15">
         <f t="shared" si="14"/>
+        <v>1979120.6206184484</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="51"/>
+      <c r="M38" s="28" t="str">
+        <f t="shared" si="18"/>
         <v>-</v>
       </c>
-      <c r="E38" s="45" t="str">
-        <f t="shared" si="15"/>
+      <c r="N38" s="43" t="str">
+        <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="F38" s="41">
-        <f t="shared" si="8"/>
-        <v>40019.715725232869</v>
-      </c>
-      <c r="G38" s="15">
-        <f t="shared" si="9"/>
-        <v>88253.423795112001</v>
-      </c>
-      <c r="H38" s="15">
-        <f t="shared" si="10"/>
-        <v>287630.01901322126</v>
-      </c>
-      <c r="I38" s="15">
-        <f t="shared" si="11"/>
-        <v>1979120.6206184484</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43928</v>
       </c>
       <c r="B39" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="E39" s="43" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="F39" s="39">
+        <f t="shared" si="11"/>
+        <v>50424.841813793413</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="12"/>
+        <v>116494.51940954785</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" si="13"/>
+        <v>406996.47690370807</v>
+      </c>
+      <c r="I39" s="15">
         <f t="shared" si="14"/>
+        <v>3136906.1836802405</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="51"/>
+      <c r="M39" s="28" t="str">
+        <f t="shared" si="18"/>
         <v>-</v>
       </c>
-      <c r="E39" s="45" t="str">
-        <f t="shared" si="15"/>
+      <c r="N39" s="43" t="str">
+        <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="F39" s="41">
-        <f t="shared" si="8"/>
-        <v>50424.841813793413</v>
-      </c>
-      <c r="G39" s="15">
-        <f t="shared" si="9"/>
-        <v>116494.51940954785</v>
-      </c>
-      <c r="H39" s="15">
-        <f t="shared" si="10"/>
-        <v>406996.47690370807</v>
-      </c>
-      <c r="I39" s="15">
-        <f t="shared" si="11"/>
-        <v>3136906.1836802405</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43929</v>
       </c>
       <c r="B40" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="E40" s="43" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="F40" s="39">
+        <f t="shared" si="11"/>
+        <v>63535.300685379698</v>
+      </c>
+      <c r="G40" s="15">
+        <f t="shared" si="12"/>
+        <v>153772.76562060317</v>
+      </c>
+      <c r="H40" s="15">
+        <f t="shared" si="13"/>
+        <v>575900.01481874695</v>
+      </c>
+      <c r="I40" s="15">
         <f t="shared" si="14"/>
+        <v>4971996.301133181</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="51"/>
+      <c r="M40" s="28" t="str">
+        <f t="shared" si="18"/>
         <v>-</v>
       </c>
-      <c r="E40" s="45" t="str">
-        <f t="shared" si="15"/>
+      <c r="N40" s="43" t="str">
+        <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="F40" s="41">
-        <f t="shared" si="8"/>
-        <v>63535.300685379698</v>
-      </c>
-      <c r="G40" s="15">
-        <f t="shared" si="9"/>
-        <v>153772.76562060317</v>
-      </c>
-      <c r="H40" s="15">
-        <f t="shared" si="10"/>
-        <v>575900.01481874695</v>
-      </c>
-      <c r="I40" s="15">
-        <f t="shared" si="11"/>
-        <v>4971996.301133181</v>
-      </c>
-      <c r="J40" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I41" s="31" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="L8:L10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:K8"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{2292755E-4A57-7F4A-A82A-DB7B77463A1F}"/>
@@ -3134,7 +3360,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3155,7 +3381,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3168,32 +3394,32 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="33" t="s">
         <v>261</v>
       </c>
@@ -3204,19 +3430,19 @@
         <v>263</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="J6" s="50" t="s">
         <v>264</v>
       </c>
+      <c r="J6" s="48" t="s">
+        <v>270</v>
+      </c>
       <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="40">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="38">
         <v>1.26</v>
       </c>
       <c r="G7" s="5">
@@ -3244,8 +3470,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="41">
+      <c r="E8" s="42"/>
+      <c r="F8" s="39">
         <v>1</v>
       </c>
       <c r="G8" s="15">
@@ -3280,11 +3506,11 @@
         <f>IF(C9&gt;0,C9/C8,"-")</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="43">
         <f t="shared" ref="E9:E12" si="0">IF(C9&gt;0,(C9/C$8)^(1/B9),"-")</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F9" s="41" t="str">
+      <c r="F9" s="39" t="str">
         <f t="shared" ref="F9:F14" si="1">IF($C10&gt;0,"",IF($C9&gt;0,$C9,F8*F$7))</f>
         <v/>
       </c>
@@ -3325,11 +3551,11 @@
         <f t="shared" ref="D10:D37" si="4">IF(C10&gt;0,C10/C9,"-")</f>
         <v>1.25</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="43">
         <f t="shared" si="0"/>
         <v>1.2909944487358056</v>
       </c>
-      <c r="F10" s="41" t="str">
+      <c r="F10" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3371,11 +3597,11 @@
         <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>1.630324415502916</v>
       </c>
-      <c r="F11" s="41" t="str">
+      <c r="F11" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3416,11 +3642,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="45">
         <f t="shared" si="0"/>
         <v>1.715785618536287</v>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3462,11 +3688,11 @@
         <f t="shared" si="4"/>
         <v>1.9230769230769231</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="45">
         <f>IF(C13&gt;0,(C13/C$8)^(1/B13),"-")</f>
         <v>1.7553743576132637</v>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3507,11 +3733,11 @@
         <f t="shared" si="4"/>
         <v>1.34</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="43">
         <f t="shared" ref="E14:E37" si="6">IF(C14&gt;0,(C14/C$8)^(1/B14),"-")</f>
         <v>1.6781299612251179</v>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="F14" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3553,11 +3779,11 @@
         <f t="shared" si="4"/>
         <v>1.3134328358208955</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="43">
         <f t="shared" si="6"/>
         <v>1.620403078620632</v>
       </c>
-      <c r="F15" s="41" t="str">
+      <c r="F15" s="39" t="str">
         <f t="shared" ref="F15:J30" si="7">IF($C16&gt;0,"",IF($C15&gt;0,$C15,F14*F$7))</f>
         <v/>
       </c>
@@ -3599,11 +3825,11 @@
         <f t="shared" si="4"/>
         <v>1.3522727272727273</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="43">
         <f t="shared" si="6"/>
         <v>1.5841752114361396</v>
       </c>
-      <c r="F16" s="41" t="str">
+      <c r="F16" s="39" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -3645,11 +3871,11 @@
         <f t="shared" si="4"/>
         <v>1.4201680672268908</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="43">
         <f t="shared" si="6"/>
         <v>1.5650546038592326</v>
       </c>
-      <c r="F17" s="41" t="str">
+      <c r="F17" s="39" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -3691,11 +3917,11 @@
         <f t="shared" si="4"/>
         <v>1.4615384615384615</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="44">
         <f t="shared" si="6"/>
         <v>1.5543813251074134</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="41">
         <f t="shared" si="7"/>
         <v>247</v>
       </c>
@@ -3735,11 +3961,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E19" s="47" t="str">
+      <c r="E19" s="45" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="40">
         <f t="shared" si="7"/>
         <v>311.22000000000003</v>
       </c>
@@ -3779,11 +4005,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E20" s="47" t="str">
+      <c r="E20" s="45" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="40">
         <f t="shared" si="7"/>
         <v>392.13720000000006</v>
       </c>
@@ -3823,11 +4049,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E21" s="45" t="str">
+      <c r="E21" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="39">
         <f t="shared" si="7"/>
         <v>494.09287200000006</v>
       </c>
@@ -3867,11 +4093,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E22" s="45" t="str">
+      <c r="E22" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="39">
         <f t="shared" si="7"/>
         <v>622.55701872000009</v>
       </c>
@@ -3911,11 +4137,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E23" s="45" t="str">
+      <c r="E23" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="39">
         <f t="shared" si="7"/>
         <v>784.4218435872001</v>
       </c>
@@ -3955,11 +4181,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E24" s="45" t="str">
+      <c r="E24" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="39">
         <f t="shared" si="7"/>
         <v>988.37152291987218</v>
       </c>
@@ -3999,11 +4225,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E25" s="46" t="str">
+      <c r="E25" s="44" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="41">
         <f t="shared" si="7"/>
         <v>1245.348118879039</v>
       </c>
@@ -4043,11 +4269,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E26" s="47" t="str">
+      <c r="E26" s="45" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="40">
         <f t="shared" si="7"/>
         <v>1569.1386297875893</v>
       </c>
@@ -4087,11 +4313,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E27" s="47" t="str">
+      <c r="E27" s="45" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="40">
         <f t="shared" si="7"/>
         <v>1977.1146735323625</v>
       </c>
@@ -4131,11 +4357,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E28" s="45" t="str">
+      <c r="E28" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="39">
         <f t="shared" si="7"/>
         <v>2491.164488650777</v>
       </c>
@@ -4174,11 +4400,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E29" s="45" t="str">
+      <c r="E29" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="39">
         <f t="shared" si="7"/>
         <v>3138.8672556999791</v>
       </c>
@@ -4217,11 +4443,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E30" s="45" t="str">
+      <c r="E30" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="39">
         <f t="shared" si="7"/>
         <v>3954.9727421819734</v>
       </c>
@@ -4260,11 +4486,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E31" s="45" t="str">
+      <c r="E31" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="39">
         <f t="shared" ref="F31:J37" si="10">IF($C32&gt;0,"",IF($C31&gt;0,$C31,F30*F$7))</f>
         <v>4983.2656551492864</v>
       </c>
@@ -4300,11 +4526,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E32" s="45" t="str">
+      <c r="E32" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="39">
         <f t="shared" si="10"/>
         <v>6278.9147254881009</v>
       </c>
@@ -4343,11 +4569,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E33" s="47" t="str">
+      <c r="E33" s="45" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="40">
         <f t="shared" si="10"/>
         <v>7911.4325541150074</v>
       </c>
@@ -4383,11 +4609,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E34" s="47" t="str">
+      <c r="E34" s="45" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="40">
         <f t="shared" si="10"/>
         <v>9968.4050181849088</v>
       </c>
@@ -4426,11 +4652,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E35" s="45" t="str">
+      <c r="E35" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="39">
         <f t="shared" si="10"/>
         <v>12560.190322912986</v>
       </c>
@@ -4469,11 +4695,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E36" s="45" t="str">
+      <c r="E36" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="39">
         <f t="shared" si="10"/>
         <v>15825.839806870363</v>
       </c>
@@ -4512,11 +4738,11 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E37" s="45" t="str">
+      <c r="E37" s="43" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="39">
         <f t="shared" si="10"/>
         <v>19940.558156656658</v>
       </c>
@@ -4566,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A5FC3C-A707-CA48-8449-03E8037E7A6F}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4585,14 +4811,14 @@
       <c r="K1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E2" s="49"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4604,54 +4830,54 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="48" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="I7" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="J7" s="50" t="s">
+      <c r="I7" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="K7" s="48"/>
+      <c r="J7" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="21">
         <v>1.26</v>
       </c>
@@ -6049,7 +6275,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6083,54 +6309,54 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="48" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="J6" s="50" t="s">
+      <c r="I6" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="K6" s="48"/>
+      <c r="J6" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="21">
         <v>1.26</v>
       </c>
@@ -7453,34 +7679,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DDE91-C511-6E40-8AC4-C5BDCD581B27}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H646"/>
+  <dimension ref="A1:N646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7583,14 +7813,14 @@
       <c r="D6" s="34">
         <v>483</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>7981</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34">
         <v>11</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>8407</v>
       </c>
     </row>
@@ -7605,14 +7835,14 @@
       <c r="D7" s="34">
         <v>160</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>1056</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34">
         <v>1</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <v>1216</v>
       </c>
     </row>
@@ -7696,7 +7926,7 @@
       <c r="G11" s="34">
         <v>6</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>1126</v>
       </c>
     </row>
@@ -7789,14 +8019,14 @@
       <c r="D16" s="34">
         <v>160</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>1340</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34">
         <v>1</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>1500</v>
       </c>
     </row>
@@ -7899,12 +8129,12 @@
       <c r="D21" s="34">
         <v>218</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <v>1541</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <v>1759</v>
       </c>
     </row>
@@ -7939,12 +8169,12 @@
       <c r="D23" s="34">
         <v>32</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>1303</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>1335</v>
       </c>
     </row>
@@ -7979,12 +8209,12 @@
       <c r="D25" s="34">
         <v>60</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>2276</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="37">
+      <c r="H25" s="36">
         <v>2336</v>
       </c>
     </row>
@@ -8175,12 +8405,12 @@
       <c r="D34" s="34">
         <v>23</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>1249</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
-      <c r="H34" s="37">
+      <c r="H34" s="36">
         <v>1272</v>
       </c>
     </row>
@@ -8206,7 +8436,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="34">
         <v>20200317</v>
@@ -8214,21 +8444,21 @@
       <c r="C36" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="36">
         <v>1700</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="36">
         <v>5506</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34">
         <v>7</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="36">
         <v>7206</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="34">
         <v>20200317</v>
@@ -8409,14 +8639,14 @@
       <c r="D45" s="34">
         <v>64</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="36">
         <v>1204</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34">
         <v>1</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="36">
         <v>1268</v>
       </c>
     </row>
@@ -8460,7 +8690,7 @@
       <c r="G47" s="34">
         <v>1</v>
       </c>
-      <c r="H47" s="37">
+      <c r="H47" s="36">
         <v>1028</v>
       </c>
     </row>
@@ -8495,14 +8725,14 @@
       <c r="D49" s="34">
         <v>904</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="36">
         <v>11582</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34">
         <v>48</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="36">
         <v>12486</v>
       </c>
     </row>
@@ -8517,12 +8747,12 @@
       <c r="D50" s="34">
         <v>72</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="36">
         <v>1038</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
-      <c r="H50" s="37">
+      <c r="H50" s="36">
         <v>1110</v>
       </c>
     </row>
@@ -8767,14 +8997,14 @@
       <c r="D62" s="34">
         <v>335</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="36">
         <v>7981</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="34">
         <v>6</v>
       </c>
-      <c r="H62" s="37">
+      <c r="H62" s="36">
         <v>8316</v>
       </c>
     </row>
@@ -8884,7 +9114,7 @@
       <c r="G67" s="34">
         <v>4</v>
       </c>
-      <c r="H67" s="37">
+      <c r="H67" s="36">
         <v>1339</v>
       </c>
     </row>
@@ -8982,7 +9212,7 @@
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
-      <c r="H72" s="37">
+      <c r="H72" s="36">
         <v>1025</v>
       </c>
     </row>
@@ -9167,12 +9397,12 @@
       <c r="D81" s="34">
         <v>54</v>
       </c>
-      <c r="E81" s="37">
+      <c r="E81" s="36">
         <v>1839</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
-      <c r="H81" s="37">
+      <c r="H81" s="36">
         <v>1893</v>
       </c>
     </row>
@@ -9396,7 +9626,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="35"/>
       <c r="B92" s="34">
         <v>20200316</v>
@@ -9407,18 +9637,18 @@
       <c r="D92" s="34">
         <v>950</v>
       </c>
-      <c r="E92" s="37">
+      <c r="E92" s="36">
         <v>4322</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="34">
         <v>7</v>
       </c>
-      <c r="H92" s="37">
+      <c r="H92" s="36">
         <v>5272</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="35"/>
       <c r="B93" s="34">
         <v>20200316</v>
@@ -9683,14 +9913,14 @@
       <c r="D105" s="34">
         <v>769</v>
       </c>
-      <c r="E105" s="37">
+      <c r="E105" s="36">
         <v>9451</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34">
         <v>42</v>
       </c>
-      <c r="H105" s="37">
+      <c r="H105" s="36">
         <v>10220</v>
       </c>
     </row>
@@ -9832,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="35"/>
       <c r="B113" s="34">
         <v>20200316</v>
@@ -9850,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="35"/>
       <c r="B114" s="34">
         <v>20200315</v>
@@ -9870,7 +10100,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="35"/>
       <c r="B115" s="34">
         <v>20200315</v>
@@ -9894,7 +10124,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="35"/>
       <c r="B116" s="34">
         <v>20200315</v>
@@ -9916,7 +10146,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="35"/>
       <c r="B117" s="34">
         <v>20200315</v>
@@ -9940,7 +10170,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="35"/>
       <c r="B118" s="34">
         <v>20200315</v>
@@ -9958,11 +10188,11 @@
       <c r="G118" s="34">
         <v>5</v>
       </c>
-      <c r="H118" s="37">
+      <c r="H118" s="36">
         <v>1209</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="35"/>
       <c r="B119" s="34">
         <v>20200315</v>
@@ -9984,7 +10214,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="35"/>
       <c r="B120" s="34">
         <v>20200315</v>
@@ -10004,7 +10234,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="35"/>
       <c r="B121" s="34">
         <v>20200315</v>
@@ -10026,7 +10256,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="35"/>
       <c r="B122" s="34">
         <v>20200315</v>
@@ -10048,7 +10278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="35"/>
       <c r="B123" s="34">
         <v>20200315</v>
@@ -10068,11 +10298,17 @@
       <c r="G123" s="34">
         <v>4</v>
       </c>
-      <c r="H123" s="37">
+      <c r="H123" s="36">
         <v>1248</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M123" s="52">
+        <v>350000000</v>
+      </c>
+      <c r="N123" s="52">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="35"/>
       <c r="B124" s="34">
         <v>20200315</v>
@@ -10092,7 +10328,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="35"/>
       <c r="B125" s="34">
         <v>20200315</v>
@@ -10110,7 +10346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="35"/>
       <c r="B126" s="34">
         <v>20200315</v>
@@ -10130,7 +10366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="35"/>
       <c r="B127" s="34">
         <v>20200315</v>
@@ -10150,7 +10386,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="35"/>
       <c r="B128" s="34">
         <v>20200315</v>
@@ -10353,12 +10589,12 @@
       <c r="D137" s="34">
         <v>35</v>
       </c>
-      <c r="E137" s="37">
+      <c r="E137" s="36">
         <v>1387</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="34"/>
-      <c r="H137" s="37">
+      <c r="H137" s="36">
         <v>1422</v>
       </c>
     </row>
@@ -10582,7 +10818,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="35"/>
       <c r="B148" s="34">
         <v>20200315</v>
@@ -10593,18 +10829,18 @@
       <c r="D148" s="34">
         <v>729</v>
       </c>
-      <c r="E148" s="37">
+      <c r="E148" s="36">
         <v>4543</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="34">
         <v>3</v>
       </c>
-      <c r="H148" s="37">
+      <c r="H148" s="36">
         <v>5272</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="35"/>
       <c r="B149" s="34">
         <v>20200315</v>
@@ -10858,7 +11094,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="35"/>
       <c r="B161" s="34">
         <v>20200315</v>
@@ -10869,18 +11105,18 @@
       <c r="D161" s="34">
         <v>642</v>
       </c>
-      <c r="E161" s="37">
+      <c r="E161" s="36">
         <v>7122</v>
       </c>
       <c r="F161" s="34"/>
       <c r="G161" s="34">
         <v>40</v>
       </c>
-      <c r="H161" s="37">
+      <c r="H161" s="36">
         <v>7764</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="35"/>
       <c r="B162" s="34">
         <v>20200315</v>
@@ -10900,7 +11136,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="35"/>
       <c r="B163" s="34">
         <v>20200315</v>
@@ -10924,7 +11160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="35"/>
       <c r="B164" s="34">
         <v>20200315</v>
@@ -10942,7 +11178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="35"/>
       <c r="B165" s="34">
         <v>20200314</v>
@@ -10962,7 +11198,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="35"/>
       <c r="B166" s="34">
         <v>20200314</v>
@@ -10984,7 +11220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="35"/>
       <c r="B167" s="34">
         <v>20200314</v>
@@ -11006,7 +11242,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="35"/>
       <c r="B168" s="34">
         <v>20200314</v>
@@ -11030,7 +11266,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="35"/>
       <c r="B169" s="34">
         <v>20200314</v>
@@ -11048,11 +11284,11 @@
       <c r="G169" s="34">
         <v>5</v>
       </c>
-      <c r="H169" s="37">
+      <c r="H169" s="36">
         <v>1168</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="35"/>
       <c r="B170" s="34">
         <v>20200314</v>
@@ -11074,7 +11310,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="35"/>
       <c r="B171" s="34">
         <v>20200314</v>
@@ -11094,7 +11330,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="35"/>
       <c r="B172" s="34">
         <v>20200314</v>
@@ -11116,7 +11352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="35"/>
       <c r="B173" s="34">
         <v>20200314</v>
@@ -11138,7 +11374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="35"/>
       <c r="B174" s="34">
         <v>20200314</v>
@@ -11161,8 +11397,16 @@
       <c r="H174" s="34">
         <v>776</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M174" s="52">
+        <f>M123/70</f>
+        <v>5000000</v>
+      </c>
+      <c r="N174" s="52">
+        <f>N123/70</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="35"/>
       <c r="B175" s="34">
         <v>20200314</v>
@@ -11181,8 +11425,11 @@
       <c r="H175" s="34">
         <v>66</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N175" s="52">
+        <v>13698.630136986301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="35"/>
       <c r="B176" s="34">
         <v>20200314</v>
@@ -11662,7 +11909,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="35"/>
       <c r="B199" s="34">
         <v>20200314</v>
@@ -11673,16 +11920,16 @@
       <c r="D199" s="34">
         <v>524</v>
       </c>
-      <c r="E199" s="37">
+      <c r="E199" s="36">
         <v>2779</v>
       </c>
       <c r="F199" s="34"/>
       <c r="G199" s="34"/>
-      <c r="H199" s="37">
+      <c r="H199" s="36">
         <v>3303</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="35"/>
       <c r="B200" s="34">
         <v>20200314</v>
@@ -11943,14 +12190,14 @@
       <c r="D212" s="34">
         <v>568</v>
       </c>
-      <c r="E212" s="37">
+      <c r="E212" s="36">
         <v>6001</v>
       </c>
       <c r="F212" s="34"/>
       <c r="G212" s="34">
         <v>37</v>
       </c>
-      <c r="H212" s="37">
+      <c r="H212" s="36">
         <v>6569</v>
       </c>
     </row>
@@ -12118,7 +12365,7 @@
       <c r="G220" s="34">
         <v>4</v>
       </c>
-      <c r="H220" s="37">
+      <c r="H220" s="36">
         <v>1118</v>
       </c>
     </row>
@@ -12204,7 +12451,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="35"/>
       <c r="B225" s="34">
         <v>20200313</v>
@@ -12227,8 +12474,16 @@
       <c r="H225" s="34">
         <v>749</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M225" s="52">
+        <f>M174/365</f>
+        <v>13698.630136986301</v>
+      </c>
+      <c r="N225" s="52">
+        <f>N174/365</f>
+        <v>2739.7260273972602</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="35"/>
       <c r="B226" s="34">
         <v>20200313</v>
@@ -12248,7 +12503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="35"/>
       <c r="B227" s="34">
         <v>20200313</v>
@@ -12266,7 +12521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="35"/>
       <c r="B228" s="34">
         <v>20200313</v>
@@ -12288,7 +12543,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="35"/>
       <c r="B229" s="34">
         <v>20200313</v>
@@ -12308,7 +12563,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="35"/>
       <c r="B230" s="34">
         <v>20200313</v>
@@ -12330,7 +12585,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="35"/>
       <c r="B231" s="34">
         <v>20200313</v>
@@ -12350,7 +12605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="35"/>
       <c r="B232" s="34">
         <v>20200313</v>
@@ -12370,7 +12625,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="35"/>
       <c r="B233" s="34">
         <v>20200313</v>
@@ -12390,7 +12645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="35"/>
       <c r="B234" s="34">
         <v>20200313</v>
@@ -12410,7 +12665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="35"/>
       <c r="B235" s="34">
         <v>20200313</v>
@@ -12430,7 +12685,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="35"/>
       <c r="B236" s="34">
         <v>20200313</v>
@@ -12450,7 +12705,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="35"/>
       <c r="B237" s="34">
         <v>20200313</v>
@@ -12472,7 +12727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="35"/>
       <c r="B238" s="34">
         <v>20200313</v>
@@ -12494,7 +12749,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="35"/>
       <c r="B239" s="34">
         <v>20200313</v>
@@ -12514,7 +12769,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="35"/>
       <c r="B240" s="34">
         <v>20200313</v>
@@ -12724,7 +12979,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="35"/>
       <c r="B250" s="34">
         <v>20200313</v>
@@ -12735,16 +12990,16 @@
       <c r="D250" s="34">
         <v>421</v>
       </c>
-      <c r="E250" s="37">
+      <c r="E250" s="36">
         <v>2779</v>
       </c>
       <c r="F250" s="34"/>
       <c r="G250" s="34"/>
-      <c r="H250" s="37">
+      <c r="H250" s="36">
         <v>3200</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="35"/>
       <c r="B251" s="34">
         <v>20200313</v>
@@ -13005,14 +13260,14 @@
       <c r="D263" s="34">
         <v>457</v>
       </c>
-      <c r="E263" s="37">
+      <c r="E263" s="36">
         <v>4350</v>
       </c>
       <c r="F263" s="34"/>
       <c r="G263" s="34">
         <v>31</v>
       </c>
-      <c r="H263" s="37">
+      <c r="H263" s="36">
         <v>4807</v>
       </c>
     </row>
@@ -13180,7 +13435,7 @@
       <c r="G271" s="34">
         <v>4</v>
       </c>
-      <c r="H271" s="37">
+      <c r="H271" s="36">
         <v>1118</v>
       </c>
     </row>
@@ -13782,7 +14037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="35"/>
       <c r="B301" s="34">
         <v>20200312</v>
@@ -13800,7 +14055,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="35"/>
       <c r="B302" s="34">
         <v>20200312</v>
@@ -14061,14 +14316,14 @@
       <c r="D314" s="34">
         <v>337</v>
       </c>
-      <c r="E314" s="37">
+      <c r="E314" s="36">
         <v>3037</v>
       </c>
       <c r="F314" s="34"/>
       <c r="G314" s="34">
         <v>29</v>
       </c>
-      <c r="H314" s="37">
+      <c r="H314" s="36">
         <v>3403</v>
       </c>
     </row>
@@ -14234,7 +14489,7 @@
       </c>
       <c r="F322" s="34"/>
       <c r="G322" s="34"/>
-      <c r="H322" s="37">
+      <c r="H322" s="36">
         <v>1073</v>
       </c>
     </row>
@@ -14832,7 +15087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="35"/>
       <c r="B352" s="34">
         <v>20200311</v>
@@ -14850,7 +15105,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="35"/>
       <c r="B353" s="34">
         <v>20200311</v>
@@ -15109,14 +15364,14 @@
       <c r="D365" s="34">
         <v>267</v>
       </c>
-      <c r="E365" s="37">
+      <c r="E365" s="36">
         <v>2175</v>
       </c>
       <c r="F365" s="34"/>
       <c r="G365" s="34">
         <v>24</v>
       </c>
-      <c r="H365" s="37">
+      <c r="H365" s="36">
         <v>2466</v>
       </c>
     </row>
@@ -15878,7 +16133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="35"/>
       <c r="B403" s="34">
         <v>20200310</v>
@@ -15898,7 +16153,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="35"/>
       <c r="B404" s="34">
         <v>20200310</v>
@@ -16147,12 +16402,12 @@
       <c r="D416" s="34">
         <v>162</v>
       </c>
-      <c r="E416" s="37">
+      <c r="E416" s="36">
         <v>1110</v>
       </c>
       <c r="F416" s="34"/>
       <c r="G416" s="34"/>
-      <c r="H416" s="37">
+      <c r="H416" s="36">
         <v>1272</v>
       </c>
     </row>
@@ -16914,7 +17169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="35"/>
       <c r="B454" s="34">
         <v>20200309</v>
@@ -16934,7 +17189,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="35"/>
       <c r="B455" s="34">
         <v>20200309</v>
@@ -17189,12 +17444,12 @@
       <c r="D467" s="34">
         <v>136</v>
       </c>
-      <c r="E467" s="37">
+      <c r="E467" s="36">
         <v>1110</v>
       </c>
       <c r="F467" s="34"/>
       <c r="G467" s="34"/>
-      <c r="H467" s="37">
+      <c r="H467" s="36">
         <v>1246</v>
       </c>
     </row>
@@ -17258,7 +17513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="35"/>
       <c r="B471" s="34">
         <v>20200308</v>
@@ -18056,7 +18311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="35"/>
       <c r="B510" s="34">
         <v>20200308</v>
@@ -18322,7 +18577,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="35"/>
       <c r="B523" s="34">
         <v>20200307</v>
@@ -19008,7 +19263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="35"/>
       <c r="B557" s="34">
         <v>20200307</v>
@@ -19366,7 +19621,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="35"/>
       <c r="B575" s="34">
         <v>20200306</v>
@@ -19968,7 +20223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="35"/>
       <c r="B604" s="34">
         <v>20200306</v>
@@ -20114,7 +20369,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="35"/>
       <c r="B611" s="34">
         <v>20200305</v>
@@ -20484,7 +20739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="35"/>
       <c r="B629" s="34">
         <v>20200305</v>
@@ -20734,7 +20989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="35"/>
       <c r="B641" s="34">
         <v>20200304</v>
@@ -20862,7 +21117,7 @@
   <autoFilter ref="B1:H646" xr:uid="{5811FBB0-F2D0-8C47-BFCE-884A6891E61A}">
     <filterColumn colId="1">
       <filters>
-        <filter val="OH"/>
+        <filter val="NY"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -20872,1427 +21127,1207 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC967565-2C61-C24E-BBD2-5F49C568E38F}">
-  <dimension ref="A2:G75"/>
+  <dimension ref="A3:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>2.0200304141187401E+24</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="36">
-        <v>2.0200305241769701E+26</v>
-      </c>
-      <c r="D3">
-        <v>176</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">D3-D2</f>
-        <v>58</v>
-      </c>
-      <c r="F3" s="39">
-        <f>D3/D2</f>
-        <v>1.4915254237288136</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="36">
-        <v>2.0200306362231601E+27</v>
-      </c>
-      <c r="D4">
-        <v>223</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="F4" s="39">
-        <f t="shared" ref="F4:F15" si="1">D4/D3</f>
-        <v>1.2670454545454546</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="36">
-        <v>2.0200307513411801E+27</v>
-      </c>
-      <c r="D5">
-        <v>341</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="F5" s="39">
-        <f t="shared" si="1"/>
-        <v>1.5291479820627802</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="36">
-        <v>2.02003085141724E+27</v>
-      </c>
-      <c r="D6">
-        <v>417</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="F6" s="39">
-        <f t="shared" si="1"/>
-        <v>1.2228739002932552</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="36">
-        <v>2.0200309515843499E+27</v>
-      </c>
-      <c r="D7">
-        <v>584</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>167</v>
-      </c>
-      <c r="F7" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4004796163069544</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="36">
-        <v>2.02003105177838E+27</v>
-      </c>
-      <c r="D8">
-        <v>778</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>194</v>
-      </c>
-      <c r="F8" s="39">
-        <f t="shared" si="1"/>
-        <v>1.3321917808219179</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="36">
-        <v>2.0200311511053501E+30</v>
-      </c>
-      <c r="D9">
-        <v>1053</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
-      <c r="F9" s="39">
-        <f t="shared" si="1"/>
-        <v>1.3534704370179949</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="36">
-        <v>2.0200312511315701E+30</v>
-      </c>
-      <c r="D10">
-        <v>1315</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>262</v>
-      </c>
-      <c r="F10" s="39">
-        <f t="shared" si="1"/>
-        <v>1.2488129154795822</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="36">
-        <v>2.02003135119221E+34</v>
-      </c>
-      <c r="D11">
-        <v>1922</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>607</v>
-      </c>
-      <c r="F11" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4615969581749049</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="36">
-        <v>2.0200314512450101E+34</v>
-      </c>
-      <c r="D12">
-        <v>2450</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>528</v>
-      </c>
-      <c r="F12" s="39">
-        <f t="shared" si="1"/>
-        <v>1.2747138397502602</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="36">
-        <v>2.0200315513173199E+34</v>
-      </c>
-      <c r="D13">
-        <v>3173</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>723</v>
-      </c>
-      <c r="F13" s="39">
-        <f t="shared" si="1"/>
-        <v>1.2951020408163265</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="36">
-        <v>2.02003165640193E+34</v>
-      </c>
-      <c r="D14">
-        <v>4019</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>846</v>
-      </c>
-      <c r="F14" s="39">
-        <f t="shared" si="1"/>
-        <v>1.2666246454459502</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="36">
-        <v>2.02003175657234E+33</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>5723</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1704</v>
-      </c>
-      <c r="F15" s="39">
-        <f t="shared" si="1"/>
-        <v>1.4239860661856183</v>
-      </c>
-      <c r="G15" s="39">
-        <f>(D15/D$2)^(1/C15)</f>
-        <v>1.3479458359152126</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>78</v>
+      <c r="A19" s="35"/>
+      <c r="B19" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>81</v>
+        <v>131</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="34" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="34" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="34" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="34" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="34" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="34" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="34" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="34" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>107</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="34" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="34" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="34" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="34" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="34" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="34" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="34" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="34" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>133</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="34" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="34" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
       <c r="B38" s="34" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
       <c r="B39" s="34" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="35"/>
       <c r="B40" s="34" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="34" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="35"/>
       <c r="B42" s="34" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="35"/>
       <c r="B43" s="34" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" s="34"/>
+        <v>211</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="35"/>
       <c r="B44" s="34" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="35"/>
       <c r="B45" s="34" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="35"/>
       <c r="B46" s="34" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="35"/>
       <c r="B47" s="34" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>174</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="62"/>
+      <c r="B48" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>228</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
-      <c r="B49" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>177</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
       <c r="F49" s="34" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="35"/>
       <c r="B50" s="34" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="35"/>
       <c r="B51" s="34" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F51" s="34"/>
+        <v>235</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="35"/>
       <c r="B52" s="34" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="B53" s="34" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="35"/>
       <c r="B54" s="34" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="35"/>
       <c r="B55" s="34" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="35"/>
       <c r="B56" s="34" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="35"/>
       <c r="B57" s="34" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
       <c r="B58" s="34" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="35"/>
       <c r="B59" s="34" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>211</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E59" s="34"/>
       <c r="F59" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
-      <c r="B60" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
-      <c r="B61" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
-      <c r="B62" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
-      <c r="B63" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="59"/>
-      <c r="B64" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="D64" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="E64" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="F64" s="34" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="59"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
-      <c r="B66" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="35"/>
-      <c r="B67" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="35"/>
-      <c r="B68" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
-      <c r="B69" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
-      <c r="B70" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="35"/>
-      <c r="B71" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="35"/>
-      <c r="B72" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="35"/>
-      <c r="B73" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
-      <c r="B74" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="35"/>
-      <c r="B75" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="https://www.google.com/url?q=http://dhss.alaska.gov/dph/Epi/id/Pages/COVID-19/monitoring.aspx&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNFXmHzI2luTH_Si1AYmx_Tnllu0Dg" xr:uid="{4FD7D8DD-4F21-4043-939E-339FAB7A4DE8}"/>
-    <hyperlink ref="C19" r:id="rId2" display="https://www.google.com/url?q=http://dhss.alaska.gov/dph/Epi/id/Pages/COVID-19/default.aspx&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNFf87IblPPNmQbA07dWcwZu997-jw" xr:uid="{7791E7E9-90EB-1D4F-A5FA-695A7E4B708A}"/>
-    <hyperlink ref="D19" r:id="rId3" display="https://www.google.com/url?q=https://twitter.com/Alaska_DHSS&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNH2-JP3I8gMrNMXnOf_EJj-RGi2jg" xr:uid="{C3DE1790-4781-774E-B5DC-EE592519E336}"/>
-    <hyperlink ref="C20" r:id="rId4" display="https://www.google.com/url?q=http://www.alabamapublichealth.gov/infectiousdiseases/2019-coronavirus.html&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEAHxbOMPSqapGZhI3XOWWW_1_R0Q" xr:uid="{28DEB866-8B76-8D44-9D21-4ECA666EC5C1}"/>
-    <hyperlink ref="D20" r:id="rId5" display="https://www.google.com/url?q=http://www.alabamapublichealth.gov/infectiousdiseases/2019-coronavirus.html&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEAHxbOMPSqapGZhI3XOWWW_1_R0Q" xr:uid="{3B7C2759-A97C-9648-9F21-7102C56983C7}"/>
-    <hyperlink ref="E20" r:id="rId6" display="https://www.google.com/url?q=https://twitter.com/alpublichealth&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEiGuHnRlu6NKAw7PEytlVPE0KhMA" xr:uid="{5F0B8153-8DEE-9445-A5AE-4E9495396B3F}"/>
-    <hyperlink ref="C21" r:id="rId7" display="https://www.google.com/url?q=https://www.healthy.arkansas.gov/programs-services/topics/novel-coronavirus&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEhYGjSfkriBUvsI8CSEAjYNmbxHg" xr:uid="{D4C1184B-E9E7-074B-8087-F725BC0E47C5}"/>
-    <hyperlink ref="D21" r:id="rId8" display="https://www.google.com/url?q=https://www.healthy.arkansas.gov/programs-services/topics/novel-coronavirus&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEhYGjSfkriBUvsI8CSEAjYNmbxHg" xr:uid="{5768FF59-FFE4-BD44-B76B-BD4BE2C4D3BD}"/>
-    <hyperlink ref="E21" r:id="rId9" display="https://www.google.com/url?q=https://twitter.com/adhpio&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEKfKldU6gYylkyPtJr-SNz1A9fpg" xr:uid="{F6EE670D-2E0E-8543-8405-9B0DDC311F5F}"/>
-    <hyperlink ref="C22" r:id="rId10" display="https://www.google.com/url?q=https://www.azdhs.gov/preparedness/epidemiology-disease-control/infectious-disease-epidemiology/index.php%23novel-coronavirus-home&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNElXyNLH0WBn0GZVAbymzWBW9wyyw" xr:uid="{296215E3-E822-8842-B0B0-AC4EB15AC7E6}"/>
-    <hyperlink ref="D22" r:id="rId11" display="https://www.google.com/url?q=https://www.azdhs.gov/preparedness/epidemiology-disease-control/infectious-disease-epidemiology/index.php%23novel-coronavirus-home&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNElXyNLH0WBn0GZVAbymzWBW9wyyw" xr:uid="{0E6BD2A5-A1A4-9543-B467-0D21772131E9}"/>
-    <hyperlink ref="E22" r:id="rId12" display="https://www.google.com/url?q=https://twitter.com/azdhs&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNFN8uYBzytXr6NPGY23bbRnrUMiZg" xr:uid="{BD381D05-A233-0342-B2CE-23B49AD63750}"/>
-    <hyperlink ref="C23" r:id="rId13" display="https://www.google.com/url?q=https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/Immunization/ncov2019.aspx&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEbsuLjpqkJ1Wwi1pfd3PlTDJ0Hdw" xr:uid="{15801059-2936-B746-A84E-1B56DFAD8023}"/>
-    <hyperlink ref="D23" r:id="rId14" display="https://www.google.com/url?q=https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/Immunization/ncov2019.aspx&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEbsuLjpqkJ1Wwi1pfd3PlTDJ0Hdw" xr:uid="{9368ADE9-7B4E-BE44-9022-1584803CD4A6}"/>
-    <hyperlink ref="E23" r:id="rId15" display="https://www.google.com/url?q=https://twitter.com/CAPublicHealth&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNGf5BVOp2KZTnn0p8-5OKLc6Pz7KA" xr:uid="{9C0B40A0-85C9-AB41-B8F1-AED008928EAA}"/>
-    <hyperlink ref="C24" r:id="rId16" display="https://www.google.com/url?q=https://docs.google.com/document/d/e/2PACX-1vRSxDeeJEaDxir0cCd9Sfji8ZPKzNaCPZnvRCbG63Oa1ztz4B4r7xG_wsoC9ucd_ei3--Pz7UD50yQD/pub&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFNP6Kjl6J0Q26V8R4crQp09_yHaA" xr:uid="{3532FA54-ECCD-0044-99E8-4F3B83BC0F8B}"/>
-    <hyperlink ref="D24" r:id="rId17" display="https://www.google.com/url?q=https://www.colorado.gov/pacific/cdphe/2019-novel-coronavirus&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNGlXYVfPms8AEMvwLQLrAwYXNYHHw" xr:uid="{45065A05-883E-E54F-8995-0D023F1F8E68}"/>
-    <hyperlink ref="E24" r:id="rId18" display="https://www.google.com/url?q=https://twitter.com/cdphe&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFGJfdoa8Pf_8YrK01A6ZYp-tLQEw" xr:uid="{74883004-08A7-B048-A1BD-9227DF8368B1}"/>
-    <hyperlink ref="C25" r:id="rId19" display="https://www.google.com/url?q=https://portal.ct.gov/Coronavirus&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNEcYnLzfBiEvdmSsYUjId6d3vpf-A" xr:uid="{87720039-BBC9-D84E-B4AE-5EC7C8ACBA32}"/>
-    <hyperlink ref="D25" r:id="rId20" display="https://www.google.com/url?q=https://portal.ct.gov/Coronavirus&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNEcYnLzfBiEvdmSsYUjId6d3vpf-A" xr:uid="{5EF314C3-7519-2B4F-9E69-BFA828FD7CFF}"/>
-    <hyperlink ref="E25" r:id="rId21" display="https://www.google.com/url?q=https://twitter.com/ctdph&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFHMUh_3v3J1CmyoVinszjhnxzZUw" xr:uid="{96C29CFC-E75B-394E-AFEE-AE29FCC0A15E}"/>
-    <hyperlink ref="C26" r:id="rId22" display="https://www.google.com/url?q=https://coronavirus.dc.gov/page/coronavirus-surveillance-data&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFV2GwwP78sW-1TQiwhjdsLK2BXqg" xr:uid="{66AA7285-6A23-1D42-B882-12FF9AC65BAE}"/>
-    <hyperlink ref="D26" r:id="rId23" display="https://www.google.com/url?q=https://coronavirus.dc.gov/&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNE0SPG-9qtiSsU5MO98eZrtguTx6g" xr:uid="{F0EEA3A9-9C3C-4242-BB16-D441047DA75C}"/>
-    <hyperlink ref="E26" r:id="rId24" display="https://www.google.com/url?q=https://twitter.com/_DCHealth&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNEgsph1VNgCbpQyk76Q8xnWz8lMWw" xr:uid="{24C4F1FC-8F1A-314A-BCE4-9B91B99B8FC3}"/>
-    <hyperlink ref="C27" r:id="rId25" display="https://www.google.com/url?q=https://dhss.delaware.gov/dhss/dph/epi/2019novelcoronavirus.html&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNHKpfCILK7saVaSieywjvUPtUKXzA" xr:uid="{814B97E6-C08B-2E47-9C30-C6F248E2A837}"/>
-    <hyperlink ref="D27" r:id="rId26" display="https://www.google.com/url?q=https://dhss.delaware.gov/dhss/dph/epi/2019novelcoronavirus.html&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNHKpfCILK7saVaSieywjvUPtUKXzA" xr:uid="{6E60B5D7-FEB8-AA4B-B73F-637E40A779BF}"/>
-    <hyperlink ref="E27" r:id="rId27" display="https://www.google.com/url?q=https://twitter.com/Delaware_DHSS&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNEsBw0Cv4zKjt0E7WAs-vaG9zPX4A" xr:uid="{EC35E9D9-E091-1F48-9730-2CEAA42C285C}"/>
-    <hyperlink ref="C28" r:id="rId28" display="https://www.google.com/url?q=https://experience.arcgis.com/experience/96dd742462124fa0b38ddedb9b25e429/&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNHBvVp9-est0XbxZ6nhV0-K6P1eng" xr:uid="{9A44050E-D3B0-414B-ACCC-A3AA05AC4AD3}"/>
-    <hyperlink ref="D28" r:id="rId29" display="https://www.google.com/url?q=http://www.floridahealth.gov/diseases-and-conditions/COVID-19/&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFu8Tt-irGtS-TJ2ntol_dSJjESYQ" xr:uid="{518E12E7-5DEF-E149-AEDD-9DC70AA7C132}"/>
-    <hyperlink ref="E28" r:id="rId30" display="https://www.google.com/url?q=https://twitter.com/HealthyFla&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNGMx3p6TIN8Smrnnyshs-2DX0vz-g" xr:uid="{9D3AFEE0-738F-6E4B-899D-E7D9495BB4EB}"/>
-    <hyperlink ref="C29" r:id="rId31" display="https://www.google.com/url?q=https://dph.georgia.gov/georgia-department-public-health-covid-19-daily-status-report&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNHhQEynWgUzrSv_MdwQmkCZ8SEQeg" xr:uid="{83A3D0E5-FD1A-524D-A873-30E691A0A6A9}"/>
-    <hyperlink ref="D29" r:id="rId32" display="https://www.google.com/url?q=https://dph.georgia.gov/novelcoronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNEJuCIFkrDBMi7HKjncNsUtjKVDAw" xr:uid="{AD606200-8ED5-EB4F-A293-641B6372A3B8}"/>
-    <hyperlink ref="E29" r:id="rId33" display="https://www.google.com/url?q=https://twitter.com/GaDPH&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFbHbSvl6Ebo6w2NImYlBoGAD7jiA" xr:uid="{D39F13F7-844E-B443-8C0D-347663A797C8}"/>
-    <hyperlink ref="C30" r:id="rId34" display="https://www.google.com/url?q=https://health.hawaii.gov/docd/advisories/novel-coronavirus-2019/&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHBmX4DOZVVFhq4SN0QAfEN2yDb1w" xr:uid="{47DF3C0E-7ACE-2E48-8CE5-1EDCD1E768FA}"/>
-    <hyperlink ref="D30" r:id="rId35" display="https://www.google.com/url?q=https://health.hawaii.gov/docd/advisories/novel-coronavirus-2019/&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHBmX4DOZVVFhq4SN0QAfEN2yDb1w" xr:uid="{95DC6FD2-4872-CA4E-A159-ABBAFA72DD03}"/>
-    <hyperlink ref="E30" r:id="rId36" display="https://www.google.com/url?q=https://twitter.com/HIgov_Health&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFBIHXZ6_SIKjM2jDW70SJJ6YWivg" xr:uid="{65D87798-06E6-3E47-8F06-60BC33A53459}"/>
-    <hyperlink ref="C31" r:id="rId37" display="https://www.google.com/url?q=https://idph.iowa.gov/Emerging-Health-Issues/Novel-Coronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHefT0W9ICGvMel98iK05LesCLstA" xr:uid="{BE652863-195A-F448-B4F0-9F1894F9071C}"/>
-    <hyperlink ref="D31" r:id="rId38" display="https://www.google.com/url?q=https://idph.iowa.gov/Emerging-Health-Issues/Novel-Coronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHefT0W9ICGvMel98iK05LesCLstA" xr:uid="{D479D2F0-6185-AD42-A9DE-8EF0484CB515}"/>
-    <hyperlink ref="E31" r:id="rId39" display="https://www.google.com/url?q=https://twitter.com/IAPublicHealth&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFKfq7_h_vW60O5uIzdLG6UELP_HQ" xr:uid="{102ECCA1-8E27-AA44-B060-883E98DC134D}"/>
-    <hyperlink ref="C32" r:id="rId40" display="https://www.google.com/url?q=https://coronavirus.idaho.gov/&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFMSZGpK6_0ODnlnWrMZuuigyzqdw" xr:uid="{99EDE148-0A0E-7940-B267-4FD7F232FEC6}"/>
-    <hyperlink ref="D32" r:id="rId41" display="https://www.google.com/url?q=https://coronavirus.idaho.gov/&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFMSZGpK6_0ODnlnWrMZuuigyzqdw" xr:uid="{5BCF5007-CA90-4C47-A065-AF572F1B9D07}"/>
-    <hyperlink ref="E32" r:id="rId42" display="https://www.google.com/url?q=https://twitter.com/IDHW&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHg4ZIRnniuRH-_oLW4HlDKYkrkcQ" xr:uid="{C62A0BA9-7008-8846-B927-4B4A908467B0}"/>
-    <hyperlink ref="C33" r:id="rId43" display="https://www.google.com/url?q=http://www.dph.illinois.gov/topics-services/diseases-and-conditions/diseases-a-z-list/coronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNGvoET2U0BRbuZxWvyWgVonBDWVGw" xr:uid="{D10E4FAF-9B89-7C4A-A8C6-31201C34E7C0}"/>
-    <hyperlink ref="D33" r:id="rId44" display="https://www.google.com/url?q=http://www.dph.illinois.gov/topics-services/diseases-and-conditions/diseases-a-z-list/coronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNGvoET2U0BRbuZxWvyWgVonBDWVGw" xr:uid="{DF5C44FD-7B64-3D45-A9C2-E3D92729F6FE}"/>
-    <hyperlink ref="E33" r:id="rId45" display="https://www.google.com/url?q=https://twitter.com/IDPH&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHEx86EuMcwIj5R7UhUPXZskS7j_w" xr:uid="{90E4745A-8926-914C-AF29-5003B6503069}"/>
-    <hyperlink ref="C34" r:id="rId46" display="https://www.google.com/url?q=https://www.in.gov/isdh/28470.htm&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNH4ha8_2vzsPKekYnapyDtxA47Mdw" xr:uid="{06396AF5-1550-4248-A385-C5BA5C65B897}"/>
-    <hyperlink ref="D34" r:id="rId47" display="https://www.google.com/url?q=https://www.in.gov/isdh/28470.htm&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNH4ha8_2vzsPKekYnapyDtxA47Mdw" xr:uid="{B1F012AF-26CC-2345-981D-E7682570E43F}"/>
-    <hyperlink ref="E34" r:id="rId48" display="https://www.google.com/url?q=https://twitter.com/statehealthin&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNG69jxJrACcBwfepFr9sFYNkaW07w" xr:uid="{8C8121CD-FADF-6641-8868-26E5A4551F78}"/>
-    <hyperlink ref="C35" r:id="rId49" display="https://www.google.com/url?q=http://www.kdheks.gov/coronavirus/&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEzdqW3ElmM6cTyDZeXjUZYg_lgVQ" xr:uid="{403EA7D6-CC8C-B14C-A07C-2C4BBA2110A3}"/>
-    <hyperlink ref="D35" r:id="rId50" display="https://www.google.com/url?q=http://www.kdheks.gov/coronavirus/&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEzdqW3ElmM6cTyDZeXjUZYg_lgVQ" xr:uid="{39541E1D-22F5-B340-A059-7433B4F3D3CB}"/>
-    <hyperlink ref="E35" r:id="rId51" display="https://www.google.com/url?q=https://twitter.com/kdhe&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEaCtXEnpvsP2ZaXzRZQJIyJqw68A" xr:uid="{E36D29F4-CCAD-F945-BD7F-4F7CD36AF623}"/>
-    <hyperlink ref="C36" r:id="rId52" display="https://www.google.com/url?q=https://chfs.ky.gov/agencies/dph/Pages/covid19.aspx&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEjBmw4fN_CLFtepIFHycEU0zH1rg" xr:uid="{66A629AF-C35B-6D46-A561-69E2F38BA623}"/>
-    <hyperlink ref="D36" r:id="rId53" display="https://www.google.com/url?q=https://chfs.ky.gov/agencies/dph/Pages/covid19.aspx&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEjBmw4fN_CLFtepIFHycEU0zH1rg" xr:uid="{D212F3E9-1F9E-2A45-9590-D43785078076}"/>
-    <hyperlink ref="E36" r:id="rId54" display="https://www.google.com/url?q=https://twitter.com/CHFSKy&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEOFtp4wWwH2IRuYwvJi5fDkWz4DA" xr:uid="{41B55B8A-C4BC-FF48-B5E6-2D36893036C6}"/>
-    <hyperlink ref="C37" r:id="rId55" display="https://www.google.com/url?q=http://ldh.la.gov/Coronavirus/&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGRr9hi7xNDhbXoCoWGBSeNom3x7g" xr:uid="{0AD41B4A-4602-0144-A8BA-C22B82EF8903}"/>
-    <hyperlink ref="D37" r:id="rId56" display="https://www.google.com/url?q=http://ldh.la.gov/Coronavirus/&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGRr9hi7xNDhbXoCoWGBSeNom3x7g" xr:uid="{7AD2B767-1516-F04F-8EA1-CC2AF4215B6A}"/>
-    <hyperlink ref="E37" r:id="rId57" display="https://www.google.com/url?q=https://twitter.com/LADeptHealth&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGZ8lbBu36lc__Xt7DJMbnkENU1bA" xr:uid="{D19F049A-A6CD-1746-B9C9-3447A5C8E68F}"/>
-    <hyperlink ref="C38" r:id="rId58" display="https://www.google.com/url?q=https://www.mass.gov/info-details/covid-19-cases-quarantine-and-monitoring&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEiEYu7YV5ewkQNN6371ES_SIaBPg" xr:uid="{C8636E14-1BC0-7F4C-8410-C2CA404E947C}"/>
-    <hyperlink ref="D38" r:id="rId59" display="https://www.google.com/url?q=https://www.mass.gov/resource/information-on-the-outbreak-of-coronavirus-disease-2019-covid-19&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGFTvDpL8p2BYtLb9x-XVJUAUwCtg" xr:uid="{CB6AD355-F0D4-1C4F-961C-16EE46E3D9BB}"/>
-    <hyperlink ref="E38" r:id="rId60" display="https://www.google.com/url?q=https://twitter.com/massdph&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNHoY_YEv3pgXnxZ4xumhzBSuCQ0Zw" xr:uid="{0D74F445-5542-4746-8CD0-D8CCDC30372B}"/>
-    <hyperlink ref="C39" r:id="rId61" display="https://www.google.com/url?q=https://phpa.health.maryland.gov/Pages/Novel-coronavirus.aspx&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGMbFgFKR7ztuJebfyKCtBpRkqpWQ" xr:uid="{A4D5FFD1-FB2C-BC4C-AC02-E0EC103A0B93}"/>
-    <hyperlink ref="D39" r:id="rId62" display="https://www.google.com/url?q=https://phpa.health.maryland.gov/Pages/Novel-coronavirus.aspx&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGMbFgFKR7ztuJebfyKCtBpRkqpWQ" xr:uid="{3F726115-CABD-2E47-86C9-B617B538FF7C}"/>
-    <hyperlink ref="E39" r:id="rId63" display="https://www.google.com/url?q=https://twitter.com/MDHealthDept&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEk2HmXrB81DeTpkz9BIOGJfpUFLQ" xr:uid="{61974295-D2A9-6A40-AACE-E9AC0473D2B6}"/>
-    <hyperlink ref="C40" r:id="rId64" display="https://www.google.com/url?q=https://www.maine.gov/dhhs/mecdc/infectious-disease/epi/airborne/coronavirus.shtml&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEx-tt9RNbXdUGGNW14qitO21oxNw" xr:uid="{57BE2D72-ECD8-324A-AC6B-147C2C9E0A8F}"/>
-    <hyperlink ref="D40" r:id="rId65" display="https://www.google.com/url?q=https://www.maine.gov/dhhs/mecdc/infectious-disease/epi/airborne/coronavirus.shtml&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNHvjHIN8FtLff7yq7Dc6L5xeZd6Gw" xr:uid="{DDACB209-7993-8844-826A-D528F0C24EF4}"/>
-    <hyperlink ref="E40" r:id="rId66" display="https://www.google.com/url?q=https://twitter.com/mainedhhs&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNHX9qqkkzQ8IuhNX3dmLHedJXo2xw" xr:uid="{4CFC02EC-DB16-C84D-BD2D-82F15C115BB8}"/>
-    <hyperlink ref="C41" r:id="rId67" display="https://www.google.com/url?q=https://www.michigan.gov/coronavirus/0,9753,7-406-98163-520743--,00.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNERoVpADwX2tjENBcde8BWcMb204g" xr:uid="{D54D17F9-4282-4D43-AB5E-4A77CA7E96BC}"/>
-    <hyperlink ref="D41" r:id="rId68" display="https://www.google.com/url?q=https://www.michigan.gov/coronavirus&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNECXf99Rg2GvBemgBJ7Ck0mHURoWg" xr:uid="{C8A90E80-E39C-814F-8E7B-E6152EFE2C7C}"/>
-    <hyperlink ref="E41" r:id="rId69" display="https://www.google.com/url?q=https://twitter.com/MichiganHHS&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFaUWrgBGaH49rORRHJOEb2hQt5Ow" xr:uid="{A793EB14-1C5E-4345-8B77-5F52C4327698}"/>
-    <hyperlink ref="C42" r:id="rId70" display="https://www.google.com/url?q=https://www.health.state.mn.us/diseases/coronavirus/situation.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFTiXepj0awHDwa2DWsQUc93rP0Uw" xr:uid="{92028131-78C7-E843-873A-2464C94CAC1A}"/>
-    <hyperlink ref="D42" r:id="rId71" display="https://www.google.com/url?q=https://www.health.state.mn.us/diseases/coronavirus/index.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFdQ8kNVs04E4_R5ZT0UkS4CiqZGw" xr:uid="{D49AEA4E-3F33-EC4F-B515-74BE342D89A5}"/>
-    <hyperlink ref="E42" r:id="rId72" display="https://www.google.com/url?q=https://twitter.com/mnhealth&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNGiKMe-85Qtc9fTXrpK1wDFn8yXJQ" xr:uid="{603ED8FE-6E2F-804E-88BE-D6D1D19E9A0D}"/>
-    <hyperlink ref="C43" r:id="rId73" display="https://www.google.com/url?q=https://health.mo.gov/living/healthcondiseases/communicable/novel-coronavirus/&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNGs1I9uIma1uPerPuVhBrxfGzghyQ" xr:uid="{5C76DD3F-BE9A-EE47-BE29-6B70A57168CE}"/>
-    <hyperlink ref="D43" r:id="rId74" display="https://www.google.com/url?q=https://health.mo.gov/living/healthcondiseases/communicable/novel-coronavirus/&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNGs1I9uIma1uPerPuVhBrxfGzghyQ" xr:uid="{07AB7B6E-7939-204D-8437-FF039200C5D2}"/>
-    <hyperlink ref="E43" r:id="rId75" display="https://www.google.com/url?q=https://twitter.com/HealthyLivingMo&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFNhHg4W6R7tNQKWAxPlbGXjZGXGA" xr:uid="{430FB356-562A-5444-8905-C5BA5AA38FA3}"/>
-    <hyperlink ref="C44" r:id="rId76" display="https://www.google.com/url?q=https://msdh.ms.gov/msdhsite/_static/14,0,420.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFWn5VLoIgIoz_WzpOGWV-1cnvCHA" xr:uid="{1AA4B45A-449A-4544-8708-ACFAD3B7F28D}"/>
-    <hyperlink ref="D44" r:id="rId77" display="https://www.google.com/url?q=https://msdh.ms.gov/msdhsite/_static/14,0,420.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFWn5VLoIgIoz_WzpOGWV-1cnvCHA" xr:uid="{95E64026-5814-E34D-BEB1-EF54B2FED67B}"/>
-    <hyperlink ref="E44" r:id="rId78" display="https://www.google.com/url?q=https://twitter.com/msdh&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNHv4BYcymonRk28FfMKC2ZxzpBxDQ" xr:uid="{219153E7-B8F9-1841-AFAA-C34BA4CC790C}"/>
-    <hyperlink ref="C45" r:id="rId79" display="https://www.google.com/url?q=https://dphhs.mt.gov/publichealth/cdepi/diseases/coronavirusmt&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNEjIwdgvtPkRdniBOB2sRRvK_qwbQ" xr:uid="{C4FC1845-73FE-1D4E-A660-6A5411F17E91}"/>
-    <hyperlink ref="D45" r:id="rId80" display="https://www.google.com/url?q=https://dphhs.mt.gov/publichealth/cdepi/diseases/coronavirusmt&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNEjIwdgvtPkRdniBOB2sRRvK_qwbQ" xr:uid="{3250899F-95EC-444D-9D64-45BC41591F0C}"/>
-    <hyperlink ref="E45" r:id="rId81" display="https://www.google.com/url?q=https://twitter.com/dphhsmt&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFXQxbF5zLLVCZjWW7R2fTljE6x_A" xr:uid="{CD11BACD-F6BB-A14B-95B6-D37B5F2490CB}"/>
-    <hyperlink ref="C46" r:id="rId82" display="https://www.google.com/url?q=https://www.ncdhhs.gov/covid-19-case-count-north-carolina&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFIs74s1SMlEJXauvr7QuD6uPniTQ" xr:uid="{2F78F7EB-CAD4-3F44-A7E6-BFDFC5497040}"/>
-    <hyperlink ref="D46" r:id="rId83" display="https://www.google.com/url?q=https://www.ncdhhs.gov/divisions/public-health/coronavirus-disease-2019-covid-19-response-north-carolina&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNGDSiz7yEll5lGxp_4AFCbvWarj8w" xr:uid="{9DA81CEB-7BE7-F546-8E4B-946C2DB10012}"/>
-    <hyperlink ref="E46" r:id="rId84" display="https://www.google.com/url?q=https://twitter.com/ncdhhs&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHGp3_ujGlOAAjCSN1T4Cm2OtMehA" xr:uid="{145912AC-6E0F-7746-8983-95F771A4D557}"/>
-    <hyperlink ref="C47" r:id="rId85" display="https://www.google.com/url?q=https://www.health.nd.gov/diseases-conditions/coronavirus/north-dakota-coronavirus-cases&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFO0XKhusLeI5i7-W7bNgXIYmNl7w" xr:uid="{4BADC10B-CE75-B842-BC69-6F66732D6FD7}"/>
-    <hyperlink ref="D47" r:id="rId86" display="https://www.google.com/url?q=https://www.health.nd.gov/diseases-conditions/coronavirus&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNEPTsoQ-op12wUGBB8o1ZdaULJ3Zg" xr:uid="{77D549B6-02AE-DD43-A051-0232F0E18061}"/>
-    <hyperlink ref="E47" r:id="rId87" display="https://www.google.com/url?q=https://twitter.com/NDDOH&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNF19bNqLDTOo-3I5rGcnz_0l7TANg" xr:uid="{6DB5EC63-97B4-314D-89B9-231809CC8062}"/>
-    <hyperlink ref="C48" r:id="rId88" display="https://www.google.com/url?q=http://dhhs.ne.gov/Pages/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHTrB4-8EZHUX_tb52x9NJVu5d9cA" xr:uid="{EB93B12D-77DC-8D45-BE60-96BD2B92AB49}"/>
-    <hyperlink ref="D48" r:id="rId89" display="https://www.google.com/url?q=http://dhhs.ne.gov/Pages/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHTrB4-8EZHUX_tb52x9NJVu5d9cA" xr:uid="{93EABF79-C0A2-AB4C-B81D-C77B7674CEA1}"/>
-    <hyperlink ref="E48" r:id="rId90" display="https://www.google.com/url?q=https://twitter.com/NEDHHS&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFCfsdgqbqau99mkuiDZJJekl7mVA" xr:uid="{B94B244D-249E-2346-9B40-D36B70415FC1}"/>
-    <hyperlink ref="C49" r:id="rId91" display="https://www.google.com/url?q=https://www.dhhs.nh.gov/dphs/cdcs/2019-ncov.htm&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNEX7QSckyFQ4KtJxcQ6dyF1jcnCDg" xr:uid="{8AC4A937-28C4-A245-9145-43453BC9DD79}"/>
-    <hyperlink ref="D49" r:id="rId92" display="https://www.google.com/url?q=https://www.dhhs.nh.gov/dphs/cdcs/2019-ncov.htm&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNEX7QSckyFQ4KtJxcQ6dyF1jcnCDg" xr:uid="{527C7AC1-4BBF-034D-A19E-00E535F4ACAC}"/>
-    <hyperlink ref="E49" r:id="rId93" display="https://www.google.com/url?q=https://twitter.com/NHPubHealth&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNF21DPaXnVuugiwk30kSx1--sN1uA" xr:uid="{E133F254-506E-E14D-9770-310EEEF7FB8F}"/>
-    <hyperlink ref="C50" r:id="rId94" display="https://www.google.com/url?q=https://www.nj.gov/health/&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHyAdTNPiR6KAkTpoljMGk26MB8UQ" xr:uid="{23D0912E-3251-4D42-8B86-4E474AD9D116}"/>
-    <hyperlink ref="D50" r:id="rId95" display="https://www.google.com/url?q=https://www.nj.gov/health/cd/topics/ncov.shtml&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFHLIRrdAAqiXUg_26HBOFNIUxfoQ" xr:uid="{0877C546-585D-894B-8BAD-196358AB8F5A}"/>
-    <hyperlink ref="E50" r:id="rId96" display="https://www.google.com/url?q=https://twitter.com/NJDeptofHealth&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHH3ch4AQJvpkEgvUl14i9tEjwJ4w" xr:uid="{4C1532F8-DEB1-3941-A585-20B775BFB812}"/>
-    <hyperlink ref="C51" r:id="rId97" display="https://www.google.com/url?q=https://cv.nmhealth.org/&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFWyU8U9FkFp8plJHnLQGcNhWEGsA" xr:uid="{358C60EB-1FB2-A343-B96A-3F58A895C2DF}"/>
-    <hyperlink ref="D51" r:id="rId98" display="https://www.google.com/url?q=https://cv.nmhealth.org/&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFWyU8U9FkFp8plJHnLQGcNhWEGsA" xr:uid="{D57D352D-3EB8-7341-BCEF-909BF0F1BFD0}"/>
-    <hyperlink ref="E51" r:id="rId99" display="https://www.google.com/url?q=https://twitter.com/NMDOH&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNF_pMpUr8EbQ-4d6XvjTAm9K8lMPw" xr:uid="{0B40CC44-6BA4-4E4C-BC3B-073C4FDB2DFB}"/>
-    <hyperlink ref="C52" r:id="rId100" display="https://www.google.com/url?q=http://dpbh.nv.gov/coronavirus/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHs3DaGgbC7V_eZ3MqybxcxhN_IoA" xr:uid="{0A2C4CCE-BDD4-2648-8533-549D6C2BBCFE}"/>
-    <hyperlink ref="D52" r:id="rId101" display="https://www.google.com/url?q=http://dpbh.nv.gov/coronavirus/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHs3DaGgbC7V_eZ3MqybxcxhN_IoA" xr:uid="{39EA7969-C51E-624E-A9AE-C465E0E53C9F}"/>
-    <hyperlink ref="E52" r:id="rId102" display="https://www.google.com/url?q=https://twitter.com/dhhsnevada&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNE6ZWcjnqAP2oZmNP4eBHYGTdhAww" xr:uid="{0B7FF9EA-AB8C-EF4D-9537-58D7FF3F0331}"/>
-    <hyperlink ref="C53" r:id="rId103" display="https://www.google.com/url?q=https://coronavirus.health.ny.gov/county-county-breakdown-positive-cases&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNEtNdKxs0AwL_8_1cBGByLcVt750Q" xr:uid="{97E0A075-5AE1-1649-8133-9DBEAB8C3BB7}"/>
-    <hyperlink ref="D53" r:id="rId104" display="https://www.google.com/url?q=https://www.health.ny.gov/diseases/communicable/coronavirus/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHgvRPkWLigU59_SlI42gHjPq4_XQ" xr:uid="{39A3E5FC-D8D7-1B41-98C4-BA76EB9D39FD}"/>
-    <hyperlink ref="E53" r:id="rId105" display="https://www.google.com/url?q=https://twitter.com/healthnygov&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNF7stmv1ZQ4fRdlHMl9Bg_bnDoLvg" xr:uid="{3180BF6B-6B26-8D46-B07D-86DEF681FD60}"/>
-    <hyperlink ref="C54" r:id="rId106" display="https://www.google.com/url?q=https://coronavirus.ohio.gov/wps/portal/gov/covid-19/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNFPNomPq7ofkitEIX9pBf0i3plT2w" xr:uid="{CEE70F8A-2FA1-6147-9063-325F67E4C7EE}"/>
-    <hyperlink ref="D54" r:id="rId107" display="https://www.google.com/url?q=https://odh.ohio.gov/wps/portal/gov/odh/know-our-programs/Novel-Coronavirus/welcome/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHT4NZHkngrYF8blpds1iM3Fe4QEw" xr:uid="{AC19B6CF-5B88-024C-B732-714E0D6BB21E}"/>
-    <hyperlink ref="E54" r:id="rId108" display="https://www.google.com/url?q=https://twitter.com/OHdeptofhealth&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNFypsg5D_5T5b0jv7lfg6qQ6EuDrw" xr:uid="{0F2D1020-3CB2-CB4D-A79E-AA12D681B50A}"/>
-    <hyperlink ref="C55" r:id="rId109" display="https://www.google.com/url?q=https://coronavirus.health.ok.gov/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNG17eRwJ6XQYC6uvr_uow5QRv_bqw" xr:uid="{A17B533B-453F-0E42-8074-3557796B378E}"/>
-    <hyperlink ref="D55" r:id="rId110" display="https://www.google.com/url?q=https://coronavirus.health.ok.gov&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNFciTUenfFRD9Vs3KMoCe2kvTcOow" xr:uid="{4AE610DE-7987-3F47-A01F-C31C7157F4E5}"/>
-    <hyperlink ref="E55" r:id="rId111" display="https://www.google.com/url?q=https://twitter.com/HealthyOklahoma&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHyrFVSWb78fU_PYrh8nky1wImtfw" xr:uid="{5653C0E6-0692-294D-AF43-927952BFB380}"/>
-    <hyperlink ref="C56" r:id="rId112" display="https://www.google.com/url?q=https://www.oregon.gov/oha/PH/DISEASESCONDITIONS/DISEASESAZ/Pages/emerging-respiratory-infections.aspx&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNE-9FptewnSQG50li_RALIgUEEruQ" xr:uid="{1E9BFFEF-6FE2-1A4E-AB80-C888A54345E0}"/>
-    <hyperlink ref="D56" r:id="rId113" display="https://www.google.com/url?q=https://www.oregon.gov/oha/PH/DISEASESCONDITIONS/DISEASESAZ/Pages/emerging-respiratory-infections.aspx&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNE-9FptewnSQG50li_RALIgUEEruQ" xr:uid="{F3C08AD8-4928-BC4C-B119-FB3B44C8946F}"/>
-    <hyperlink ref="E56" r:id="rId114" display="https://www.google.com/url?q=https://twitter.com/OHAOregon&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNFqcS6odyP-XbMUaNatPDmkHnUGEA" xr:uid="{31D4110D-BFF0-354E-AF37-6BD48AA0981B}"/>
-    <hyperlink ref="C57" r:id="rId115" display="https://www.google.com/url?q=https://www.health.pa.gov/topics/disease/Pages/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFqyFmOpVKJ4f_k3GsWVpmrmV-Tkw" xr:uid="{314458FD-3C4F-3B44-B894-6DAEA260D6E1}"/>
-    <hyperlink ref="D57" r:id="rId116" display="https://www.google.com/url?q=https://www.health.pa.gov/topics/disease/Pages/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFqyFmOpVKJ4f_k3GsWVpmrmV-Tkw" xr:uid="{C2D82166-4F6A-184B-AF31-B6E1DF6B468D}"/>
-    <hyperlink ref="E57" r:id="rId117" display="https://www.google.com/url?q=https://twitter.com/PAHealthDept&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHn3LXcA0L8-XPueUGoi7f1ar1bKw" xr:uid="{B5907DAD-8C2D-A143-B915-ACC688ECCDD1}"/>
-    <hyperlink ref="C58" r:id="rId118" display="https://www.google.com/url?q=https://health.ri.gov/data/covid-19/&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNEbzykdzGUlyT-NK6fgxhPowtFQmA" xr:uid="{04D5152C-1A97-074E-9C08-EE09DCF3EBFB}"/>
-    <hyperlink ref="D58" r:id="rId119" display="https://www.google.com/url?q=https://health.ri.gov/diseases/respiratory/?parm%3D163&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFqWtHQamY0i7CkgunBrd8x3GeU6Q" xr:uid="{AA6F182A-5BA1-A242-BAD7-E9F6C3406160}"/>
-    <hyperlink ref="E58" r:id="rId120" display="https://www.google.com/url?q=https://twitter.com/rihealth&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNGLIBa-qDb6rdrtmXYbiX2tvG8LCw" xr:uid="{FAFB0E22-DC75-BF4F-8A10-D972F7D072D5}"/>
-    <hyperlink ref="C59" r:id="rId121" display="https://www.google.com/url?q=https://scdhec.gov/health/infectious-diseases/viruses/coronavirus-disease-2019-covid-19/monitoring-testing-covid-19&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNEsPsx2RkcUO7IrMc0cMudAN5o3Zw" xr:uid="{E2AA61C8-543C-8248-B618-CFBEAD447F78}"/>
-    <hyperlink ref="D59" r:id="rId122" display="https://www.google.com/url?q=https://scdhec.gov/health/infectious-diseases/viruses/coronavirus-disease-2019-covid-19&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNGWiVI_YOsLMKAEg0reKsAiyu9rAg" xr:uid="{549BD456-577E-A34D-8D98-065DA8F68710}"/>
-    <hyperlink ref="E59" r:id="rId123" display="https://www.google.com/url?q=https://twitter.com/scdhec&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFn0AJWFe4RMltIWrNREpMPXUFsJQ" xr:uid="{1E43FAF9-FE7C-0845-983B-B53CEBAA80D4}"/>
-    <hyperlink ref="C60" r:id="rId124" display="https://www.google.com/url?q=https://doh.sd.gov/news/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHjTkJepnvGVVtCPfyHsKg6Xaxqow" xr:uid="{003A7757-2687-364F-B780-F5BA06F765CE}"/>
-    <hyperlink ref="D60" r:id="rId125" display="https://www.google.com/url?q=https://doh.sd.gov/news/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHjTkJepnvGVVtCPfyHsKg6Xaxqow" xr:uid="{A2EC91B4-6978-7046-AD28-F97426959844}"/>
-    <hyperlink ref="E60" r:id="rId126" display="https://www.google.com/url?q=https://twitter.com/SDDOH&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNH1dkQT312qe7H5KKw0U4q8_BgsSg" xr:uid="{3FBB70D9-CE47-804D-B6AA-1483E2BE7F0E}"/>
-    <hyperlink ref="C61" r:id="rId127" display="https://www.google.com/url?q=https://www.tn.gov/health/cedep/ncov.html&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHRex_i9OB2Oqybj5ytE_zHbf6p_Q" xr:uid="{81413A04-8ED1-BF4F-81AA-0F218286EC15}"/>
-    <hyperlink ref="D61" r:id="rId128" display="https://www.google.com/url?q=https://www.tn.gov/health/cedep/ncov.html&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHRex_i9OB2Oqybj5ytE_zHbf6p_Q" xr:uid="{21B03E42-8DE3-1F44-ACDB-730F6685D42F}"/>
-    <hyperlink ref="E61" r:id="rId129" display="https://www.google.com/url?q=https://twitter.com/TNDeptofHealth&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNEmmIX4gBbo3qhi8Bmh16jvMmGWIQ" xr:uid="{28638E3C-2D8C-1C4C-939D-88E8674A321E}"/>
-    <hyperlink ref="C62" r:id="rId130" display="https://www.google.com/url?q=https://dshs.texas.gov/news/updates.shtm%23coronavirus&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNGJ22gXkXg1uqAJPpTYZL7hoo2-Nw" xr:uid="{ADB1B058-9DC5-954F-A782-E2667DBCC0F9}"/>
-    <hyperlink ref="D62" r:id="rId131" display="https://www.google.com/url?q=https://dshs.texas.gov/coronavirus/&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNG5a4STKTnCZ7uO8jkLwZ6E_8KquQ" xr:uid="{CD8A10CF-A6C5-E846-B1C1-2DCA761BDED8}"/>
-    <hyperlink ref="E62" r:id="rId132" display="https://www.google.com/url?q=https://twitter.com/TexasDSHS&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFL49FUwUS86JedwqwGDB2w5EgCgA" xr:uid="{E81A1456-E054-B44C-B27F-DAFFE4A6BA6B}"/>
-    <hyperlink ref="C63" r:id="rId133" display="https://www.google.com/url?q=https://coronavirus.utah.gov/latest/&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGQNsnsfy7xFcu1s3FNN74-5AlxtQ" xr:uid="{9FC26259-DDD5-0145-BA01-5A6FFD91CF6F}"/>
-    <hyperlink ref="D63" r:id="rId134" display="https://www.google.com/url?q=https://health.utah.gov/coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNFJUvWRDAtFWBgkFWYRJq2axRpQcg" xr:uid="{30D7FA93-A1A4-2D47-B129-C9C414F5F9AF}"/>
-    <hyperlink ref="E63" r:id="rId135" display="https://www.google.com/url?q=https://twitter.com/utahdepofhealth&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNEop0sRvUbfjKxxMskhhBqia9ZlGA" xr:uid="{77A5F427-AEA2-9A49-910A-B8196C5E93F3}"/>
-    <hyperlink ref="C64" r:id="rId136" display="https://www.google.com/url?q=https://public.tableau.com/views/VirginiaCOVID-19Dashboard/VirginiaCOVID-19Dashboard?:embed%3Dyes%26:display_count%3Dyes%26:showVizHome%3Dno%26:toolbar%3Dno&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNFZWJYp0j0trW6N6qLH28I6RRytlA" xr:uid="{8BB82FEE-7E2F-034B-95FC-4B5CCD031867}"/>
-    <hyperlink ref="D64" r:id="rId137" display="https://www.google.com/url?q=http://www.vdh.virginia.gov/surveillance-and-investigation/novel-coronavirus/&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGD33HUy_5ok_7I1odLcPvJEUY2DA" xr:uid="{8D6FA8CD-6439-F041-AC61-B01A18C5F274}"/>
-    <hyperlink ref="E64" r:id="rId138" display="https://www.google.com/url?q=https://twitter.com/vdhgov&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGZNITuSc_7GSgTNFqDUsEoYolrKA" xr:uid="{50181D67-2083-3640-85BE-1C4FA4CBFA87}"/>
-    <hyperlink ref="C66" r:id="rId139" display="https://www.google.com/url?q=https://www.healthvermont.gov/response/infectious-disease/2019-novel-coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNFyE33XK59mrdWZopkQzkAiApskUw" xr:uid="{2524AC1A-5F8E-F447-A04D-363E8951DB23}"/>
-    <hyperlink ref="D66" r:id="rId140" display="https://www.google.com/url?q=https://www.healthvermont.gov/response/infectious-disease/2019-novel-coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNFyE33XK59mrdWZopkQzkAiApskUw" xr:uid="{2209A464-9300-2F40-86C0-DC29456664C7}"/>
-    <hyperlink ref="E66" r:id="rId141" display="https://www.google.com/url?q=https://twitter.com/healthvermont&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNHhjQ26l4wspq5a--0P3_tdXcbyCQ" xr:uid="{41DF9264-06EC-904E-BDCC-84662E1EA435}"/>
-    <hyperlink ref="C67" r:id="rId142" display="https://www.google.com/url?q=https://www.doh.wa.gov/Emergencies/Coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNED7UkG86oz7-xVyNG5kWpSWRKXfw" xr:uid="{5CA220EB-1744-5640-85DE-977319888439}"/>
-    <hyperlink ref="D67" r:id="rId143" display="https://www.google.com/url?q=https://www.doh.wa.gov/Emergencies/Coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNED7UkG86oz7-xVyNG5kWpSWRKXfw" xr:uid="{16C2BD5A-635C-D448-A75B-872C09ADC609}"/>
-    <hyperlink ref="E67" r:id="rId144" display="https://www.google.com/url?q=https://twitter.com/WADeptHealth&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGNO5DvP8FumCIhWNo0XEVZD5knbw" xr:uid="{43989B4F-D1FC-6C42-8760-070559DFACE2}"/>
-    <hyperlink ref="C68" r:id="rId145" display="https://www.google.com/url?q=https://www.dhs.wisconsin.gov/outbreaks/index.htm&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGwwpVVdzz39htaRKWR7tH8eCKERA" xr:uid="{008BCA9B-B400-D046-825F-33D4205276A1}"/>
-    <hyperlink ref="D68" r:id="rId146" display="https://www.google.com/url?q=https://www.dhs.wisconsin.gov/disease/covid-19.htm&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNF-9M4CysksmVC-yRsE4lQHdaQqdQ" xr:uid="{F7A2CFB4-3CB5-D041-B57E-7BE1C86169B6}"/>
-    <hyperlink ref="E68" r:id="rId147" display="https://www.google.com/url?q=https://twitter.com/DHSWI&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNEzZAFpA5FvBc6wAPG2wMxEfCDrFg" xr:uid="{2C5B2270-6CBD-B24B-B62F-5D4C30603720}"/>
-    <hyperlink ref="C69" r:id="rId148" display="https://www.google.com/url?q=https://dhhr.wv.gov/Coronavirus%2520Disease-COVID-19/Pages/default.aspx&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNH38VjXOfww8txdxHikg9JyTOBQBw" xr:uid="{8C2F01BC-3B64-3542-814D-7728A4587C02}"/>
-    <hyperlink ref="D69" r:id="rId149" display="https://www.google.com/url?q=https://dhhr.wv.gov/Coronavirus%2520Disease-COVID-19/Pages/default.aspx&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNH38VjXOfww8txdxHikg9JyTOBQBw" xr:uid="{2E44105A-CE00-1842-861C-88C6A33D9131}"/>
-    <hyperlink ref="E69" r:id="rId150" display="https://www.google.com/url?q=https://twitter.com/WV_DHHR&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFXF0pSWMvl5AenTNLHyj4sJK5-8A" xr:uid="{94C829D1-348B-AC49-804F-1B8FB7F850D3}"/>
-    <hyperlink ref="C70" r:id="rId151" display="https://www.google.com/url?q=https://health.wyo.gov/publichealth/infectious-disease-epidemiology-unit/disease/novel-coronavirus/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNEkXnKCs-txqGQW3EuC1i376Op0ZA" xr:uid="{0F3C098F-A962-0E42-B098-9B7D3FC64F24}"/>
-    <hyperlink ref="D70" r:id="rId152" display="https://www.google.com/url?q=https://health.wyo.gov/publichealth/infectious-disease-epidemiology-unit/disease/novel-coronavirus/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNEkXnKCs-txqGQW3EuC1i376Op0ZA" xr:uid="{9E452583-2698-9A43-AB05-1B4B3F4461C4}"/>
-    <hyperlink ref="E70" r:id="rId153" display="https://www.google.com/url?q=https://twitter.com/health_wyoming&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFZ2dLT2FnMR_Zktux5FEtm_XrPww" xr:uid="{23D5C9E3-61CE-D347-86FB-970D0BD4E8EE}"/>
-    <hyperlink ref="C71" r:id="rId154" display="https://www.google.com/url?q=http://www.salud.gov.pr/Pages/coronavirus.aspx&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNEOycciUQYtEN7YeMewe2fpaFliqQ" xr:uid="{17453822-7AC3-6943-B2DF-12265218F75B}"/>
-    <hyperlink ref="D71" r:id="rId155" display="https://www.google.com/url?q=http://www.salud.gov.pr/Pages/coronavirus.aspx&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNEOycciUQYtEN7YeMewe2fpaFliqQ" xr:uid="{C5C3CED7-AF91-2D41-9F93-207EBE1CDD8D}"/>
-    <hyperlink ref="E71" r:id="rId156" display="https://www.google.com/url?q=https://twitter.com/DeptSaludPR?s%3D20&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNE6wWhx_SLSeOggZSuiOXpOTbB8zg" xr:uid="{8F41011E-3A9D-0B49-BEE3-1DFECFDBD32B}"/>
-    <hyperlink ref="C72" r:id="rId157" display="https://www.google.com/url?q=https://doh.vi.gov/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNH935a9c_wLDnQh4h6ByRetd85ECA" xr:uid="{98082CD3-B641-DF43-86A8-5647C4760068}"/>
-    <hyperlink ref="D72" r:id="rId158" display="https://www.google.com/url?q=https://doh.vi.gov/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNH935a9c_wLDnQh4h6ByRetd85ECA" xr:uid="{85807A0B-B856-114F-8C72-2C7EF9D36837}"/>
-    <hyperlink ref="E72" r:id="rId159" display="https://www.google.com/url?q=https://twitter.com/usvidoh&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFEq7ZgnaQmAPi9JRoJFh4fApkx0g" xr:uid="{E3C4FED9-E19F-1A4B-8FD4-8F45AD74A5B4}"/>
-    <hyperlink ref="C73" r:id="rId160" display="https://www.google.com/url?q=https://ghs.guam.gov/coronavirus-covid-19&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNHUuYOWMbY8a5pwTRTv1o4bHXd0Uw" xr:uid="{91DDA838-8049-824E-A203-1C293FFA1C38}"/>
-    <hyperlink ref="D73" r:id="rId161" display="https://www.google.com/url?q=https://ghs.guam.gov/coronavirus-covid-19&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNHUuYOWMbY8a5pwTRTv1o4bHXd0Uw" xr:uid="{C4DA60AD-A153-DD4D-998C-36404310BDCB}"/>
-    <hyperlink ref="E73" r:id="rId162" display="https://www.google.com/url?q=https://twitter.com/guamdphss?lang%3Den&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNG2mM-zPDZlrCDz4dHX3MIpzxml-A" xr:uid="{3BD23CF4-D7EB-E547-B29D-55BF9F190BE1}"/>
-    <hyperlink ref="C74" r:id="rId163" display="https://www.google.com/url?q=https://www.chcc.gov.mp/coronavirusinformation.php&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFzmzlgHJrLKbwYKUfDnaoTSjZFFg" xr:uid="{5745A278-B32E-994F-B130-48000791079F}"/>
-    <hyperlink ref="D74" r:id="rId164" display="https://www.google.com/url?q=https://www.chcc.gov.mp/coronavirusinformation.php&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFzmzlgHJrLKbwYKUfDnaoTSjZFFg" xr:uid="{7D906078-3E11-0B4D-A0CF-1108EB6B8C49}"/>
-    <hyperlink ref="E74" r:id="rId165" display="https://www.google.com/url?q=https://twitter.com/cnmichcc&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNGnC4KbRhP-g5_8hKoWMmFapxzOQg" xr:uid="{49B7B5C6-4D7E-BE48-B095-DE234233FF82}"/>
-    <hyperlink ref="C75" r:id="rId166" display="https://www.google.com/url?q=http://www.samoagovt.ws/2020/03/ministry-of-health-coronavirus-covid-19-update-14-march-2020/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNGbUip_mipWCIO2P0VQZI-lu-LvGw" xr:uid="{61119CE0-F2BC-BB4F-810D-9592944C00C6}"/>
-    <hyperlink ref="D75" r:id="rId167" display="https://www.google.com/url?q=http://www.samoagovt.ws/2020/03/ministry-of-health-coronavirus-covid-19-update-14-march-2020/&amp;sa=D&amp;ust=1584532676892000&amp;usg=AFQjCNFzK4Aqa-BHGZG_DiaPEVwaI6b8oQ" xr:uid="{E651EE98-BDBB-BF44-ADFA-C75BF48119A0}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://www.google.com/url?q=http://dhss.alaska.gov/dph/Epi/id/Pages/COVID-19/monitoring.aspx&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNFXmHzI2luTH_Si1AYmx_Tnllu0Dg" xr:uid="{4FD7D8DD-4F21-4043-939E-339FAB7A4DE8}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.google.com/url?q=http://dhss.alaska.gov/dph/Epi/id/Pages/COVID-19/default.aspx&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNFf87IblPPNmQbA07dWcwZu997-jw" xr:uid="{7791E7E9-90EB-1D4F-A5FA-695A7E4B708A}"/>
+    <hyperlink ref="E3" r:id="rId3" display="https://www.google.com/url?q=https://twitter.com/Alaska_DHSS&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNH2-JP3I8gMrNMXnOf_EJj-RGi2jg" xr:uid="{C3DE1790-4781-774E-B5DC-EE592519E336}"/>
+    <hyperlink ref="C4" r:id="rId4" display="https://www.google.com/url?q=http://www.alabamapublichealth.gov/infectiousdiseases/2019-coronavirus.html&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEAHxbOMPSqapGZhI3XOWWW_1_R0Q" xr:uid="{28DEB866-8B76-8D44-9D21-4ECA666EC5C1}"/>
+    <hyperlink ref="D4" r:id="rId5" display="https://www.google.com/url?q=http://www.alabamapublichealth.gov/infectiousdiseases/2019-coronavirus.html&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEAHxbOMPSqapGZhI3XOWWW_1_R0Q" xr:uid="{3B7C2759-A97C-9648-9F21-7102C56983C7}"/>
+    <hyperlink ref="E4" r:id="rId6" display="https://www.google.com/url?q=https://twitter.com/alpublichealth&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEiGuHnRlu6NKAw7PEytlVPE0KhMA" xr:uid="{5F0B8153-8DEE-9445-A5AE-4E9495396B3F}"/>
+    <hyperlink ref="C5" r:id="rId7" display="https://www.google.com/url?q=https://www.healthy.arkansas.gov/programs-services/topics/novel-coronavirus&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEhYGjSfkriBUvsI8CSEAjYNmbxHg" xr:uid="{D4C1184B-E9E7-074B-8087-F725BC0E47C5}"/>
+    <hyperlink ref="D5" r:id="rId8" display="https://www.google.com/url?q=https://www.healthy.arkansas.gov/programs-services/topics/novel-coronavirus&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEhYGjSfkriBUvsI8CSEAjYNmbxHg" xr:uid="{5768FF59-FFE4-BD44-B76B-BD4BE2C4D3BD}"/>
+    <hyperlink ref="E5" r:id="rId9" display="https://www.google.com/url?q=https://twitter.com/adhpio&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEKfKldU6gYylkyPtJr-SNz1A9fpg" xr:uid="{F6EE670D-2E0E-8543-8405-9B0DDC311F5F}"/>
+    <hyperlink ref="C6" r:id="rId10" display="https://www.google.com/url?q=https://www.azdhs.gov/preparedness/epidemiology-disease-control/infectious-disease-epidemiology/index.php%23novel-coronavirus-home&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNElXyNLH0WBn0GZVAbymzWBW9wyyw" xr:uid="{296215E3-E822-8842-B0B0-AC4EB15AC7E6}"/>
+    <hyperlink ref="D6" r:id="rId11" display="https://www.google.com/url?q=https://www.azdhs.gov/preparedness/epidemiology-disease-control/infectious-disease-epidemiology/index.php%23novel-coronavirus-home&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNElXyNLH0WBn0GZVAbymzWBW9wyyw" xr:uid="{0E6BD2A5-A1A4-9543-B467-0D21772131E9}"/>
+    <hyperlink ref="E6" r:id="rId12" display="https://www.google.com/url?q=https://twitter.com/azdhs&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNFN8uYBzytXr6NPGY23bbRnrUMiZg" xr:uid="{BD381D05-A233-0342-B2CE-23B49AD63750}"/>
+    <hyperlink ref="C7" r:id="rId13" display="https://www.google.com/url?q=https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/Immunization/ncov2019.aspx&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEbsuLjpqkJ1Wwi1pfd3PlTDJ0Hdw" xr:uid="{15801059-2936-B746-A84E-1B56DFAD8023}"/>
+    <hyperlink ref="D7" r:id="rId14" display="https://www.google.com/url?q=https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/Immunization/ncov2019.aspx&amp;sa=D&amp;ust=1584532676882000&amp;usg=AFQjCNEbsuLjpqkJ1Wwi1pfd3PlTDJ0Hdw" xr:uid="{9368ADE9-7B4E-BE44-9022-1584803CD4A6}"/>
+    <hyperlink ref="E7" r:id="rId15" display="https://www.google.com/url?q=https://twitter.com/CAPublicHealth&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNGf5BVOp2KZTnn0p8-5OKLc6Pz7KA" xr:uid="{9C0B40A0-85C9-AB41-B8F1-AED008928EAA}"/>
+    <hyperlink ref="C8" r:id="rId16" display="https://www.google.com/url?q=https://docs.google.com/document/d/e/2PACX-1vRSxDeeJEaDxir0cCd9Sfji8ZPKzNaCPZnvRCbG63Oa1ztz4B4r7xG_wsoC9ucd_ei3--Pz7UD50yQD/pub&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFNP6Kjl6J0Q26V8R4crQp09_yHaA" xr:uid="{3532FA54-ECCD-0044-99E8-4F3B83BC0F8B}"/>
+    <hyperlink ref="D8" r:id="rId17" display="https://www.google.com/url?q=https://www.colorado.gov/pacific/cdphe/2019-novel-coronavirus&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNGlXYVfPms8AEMvwLQLrAwYXNYHHw" xr:uid="{45065A05-883E-E54F-8995-0D023F1F8E68}"/>
+    <hyperlink ref="E8" r:id="rId18" display="https://www.google.com/url?q=https://twitter.com/cdphe&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFGJfdoa8Pf_8YrK01A6ZYp-tLQEw" xr:uid="{74883004-08A7-B048-A1BD-9227DF8368B1}"/>
+    <hyperlink ref="C9" r:id="rId19" display="https://www.google.com/url?q=https://portal.ct.gov/Coronavirus&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNEcYnLzfBiEvdmSsYUjId6d3vpf-A" xr:uid="{87720039-BBC9-D84E-B4AE-5EC7C8ACBA32}"/>
+    <hyperlink ref="D9" r:id="rId20" display="https://www.google.com/url?q=https://portal.ct.gov/Coronavirus&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNEcYnLzfBiEvdmSsYUjId6d3vpf-A" xr:uid="{5EF314C3-7519-2B4F-9E69-BFA828FD7CFF}"/>
+    <hyperlink ref="E9" r:id="rId21" display="https://www.google.com/url?q=https://twitter.com/ctdph&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFHMUh_3v3J1CmyoVinszjhnxzZUw" xr:uid="{96C29CFC-E75B-394E-AFEE-AE29FCC0A15E}"/>
+    <hyperlink ref="C10" r:id="rId22" display="https://www.google.com/url?q=https://coronavirus.dc.gov/page/coronavirus-surveillance-data&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFV2GwwP78sW-1TQiwhjdsLK2BXqg" xr:uid="{66AA7285-6A23-1D42-B882-12FF9AC65BAE}"/>
+    <hyperlink ref="D10" r:id="rId23" display="https://www.google.com/url?q=https://coronavirus.dc.gov/&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNE0SPG-9qtiSsU5MO98eZrtguTx6g" xr:uid="{F0EEA3A9-9C3C-4242-BB16-D441047DA75C}"/>
+    <hyperlink ref="E10" r:id="rId24" display="https://www.google.com/url?q=https://twitter.com/_DCHealth&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNEgsph1VNgCbpQyk76Q8xnWz8lMWw" xr:uid="{24C4F1FC-8F1A-314A-BCE4-9B91B99B8FC3}"/>
+    <hyperlink ref="C11" r:id="rId25" display="https://www.google.com/url?q=https://dhss.delaware.gov/dhss/dph/epi/2019novelcoronavirus.html&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNHKpfCILK7saVaSieywjvUPtUKXzA" xr:uid="{814B97E6-C08B-2E47-9C30-C6F248E2A837}"/>
+    <hyperlink ref="D11" r:id="rId26" display="https://www.google.com/url?q=https://dhss.delaware.gov/dhss/dph/epi/2019novelcoronavirus.html&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNHKpfCILK7saVaSieywjvUPtUKXzA" xr:uid="{6E60B5D7-FEB8-AA4B-B73F-637E40A779BF}"/>
+    <hyperlink ref="E11" r:id="rId27" display="https://www.google.com/url?q=https://twitter.com/Delaware_DHSS&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNEsBw0Cv4zKjt0E7WAs-vaG9zPX4A" xr:uid="{EC35E9D9-E091-1F48-9730-2CEAA42C285C}"/>
+    <hyperlink ref="C12" r:id="rId28" display="https://www.google.com/url?q=https://experience.arcgis.com/experience/96dd742462124fa0b38ddedb9b25e429/&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNHBvVp9-est0XbxZ6nhV0-K6P1eng" xr:uid="{9A44050E-D3B0-414B-ACCC-A3AA05AC4AD3}"/>
+    <hyperlink ref="D12" r:id="rId29" display="https://www.google.com/url?q=http://www.floridahealth.gov/diseases-and-conditions/COVID-19/&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNFu8Tt-irGtS-TJ2ntol_dSJjESYQ" xr:uid="{518E12E7-5DEF-E149-AEDD-9DC70AA7C132}"/>
+    <hyperlink ref="E12" r:id="rId30" display="https://www.google.com/url?q=https://twitter.com/HealthyFla&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNGMx3p6TIN8Smrnnyshs-2DX0vz-g" xr:uid="{9D3AFEE0-738F-6E4B-899D-E7D9495BB4EB}"/>
+    <hyperlink ref="C13" r:id="rId31" display="https://www.google.com/url?q=https://dph.georgia.gov/georgia-department-public-health-covid-19-daily-status-report&amp;sa=D&amp;ust=1584532676883000&amp;usg=AFQjCNHhQEynWgUzrSv_MdwQmkCZ8SEQeg" xr:uid="{83A3D0E5-FD1A-524D-A873-30E691A0A6A9}"/>
+    <hyperlink ref="D13" r:id="rId32" display="https://www.google.com/url?q=https://dph.georgia.gov/novelcoronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNEJuCIFkrDBMi7HKjncNsUtjKVDAw" xr:uid="{AD606200-8ED5-EB4F-A293-641B6372A3B8}"/>
+    <hyperlink ref="E13" r:id="rId33" display="https://www.google.com/url?q=https://twitter.com/GaDPH&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFbHbSvl6Ebo6w2NImYlBoGAD7jiA" xr:uid="{D39F13F7-844E-B443-8C0D-347663A797C8}"/>
+    <hyperlink ref="C14" r:id="rId34" display="https://www.google.com/url?q=https://health.hawaii.gov/docd/advisories/novel-coronavirus-2019/&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHBmX4DOZVVFhq4SN0QAfEN2yDb1w" xr:uid="{47DF3C0E-7ACE-2E48-8CE5-1EDCD1E768FA}"/>
+    <hyperlink ref="D14" r:id="rId35" display="https://www.google.com/url?q=https://health.hawaii.gov/docd/advisories/novel-coronavirus-2019/&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHBmX4DOZVVFhq4SN0QAfEN2yDb1w" xr:uid="{95DC6FD2-4872-CA4E-A159-ABBAFA72DD03}"/>
+    <hyperlink ref="E14" r:id="rId36" display="https://www.google.com/url?q=https://twitter.com/HIgov_Health&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFBIHXZ6_SIKjM2jDW70SJJ6YWivg" xr:uid="{65D87798-06E6-3E47-8F06-60BC33A53459}"/>
+    <hyperlink ref="C15" r:id="rId37" display="https://www.google.com/url?q=https://idph.iowa.gov/Emerging-Health-Issues/Novel-Coronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHefT0W9ICGvMel98iK05LesCLstA" xr:uid="{BE652863-195A-F448-B4F0-9F1894F9071C}"/>
+    <hyperlink ref="D15" r:id="rId38" display="https://www.google.com/url?q=https://idph.iowa.gov/Emerging-Health-Issues/Novel-Coronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHefT0W9ICGvMel98iK05LesCLstA" xr:uid="{D479D2F0-6185-AD42-A9DE-8EF0484CB515}"/>
+    <hyperlink ref="E15" r:id="rId39" display="https://www.google.com/url?q=https://twitter.com/IAPublicHealth&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFKfq7_h_vW60O5uIzdLG6UELP_HQ" xr:uid="{102ECCA1-8E27-AA44-B060-883E98DC134D}"/>
+    <hyperlink ref="C16" r:id="rId40" display="https://www.google.com/url?q=https://coronavirus.idaho.gov/&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFMSZGpK6_0ODnlnWrMZuuigyzqdw" xr:uid="{99EDE148-0A0E-7940-B267-4FD7F232FEC6}"/>
+    <hyperlink ref="D16" r:id="rId41" display="https://www.google.com/url?q=https://coronavirus.idaho.gov/&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNFMSZGpK6_0ODnlnWrMZuuigyzqdw" xr:uid="{5BCF5007-CA90-4C47-A065-AF572F1B9D07}"/>
+    <hyperlink ref="E16" r:id="rId42" display="https://www.google.com/url?q=https://twitter.com/IDHW&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHg4ZIRnniuRH-_oLW4HlDKYkrkcQ" xr:uid="{C62A0BA9-7008-8846-B927-4B4A908467B0}"/>
+    <hyperlink ref="C17" r:id="rId43" display="https://www.google.com/url?q=http://www.dph.illinois.gov/topics-services/diseases-and-conditions/diseases-a-z-list/coronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNGvoET2U0BRbuZxWvyWgVonBDWVGw" xr:uid="{D10E4FAF-9B89-7C4A-A8C6-31201C34E7C0}"/>
+    <hyperlink ref="D17" r:id="rId44" display="https://www.google.com/url?q=http://www.dph.illinois.gov/topics-services/diseases-and-conditions/diseases-a-z-list/coronavirus&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNGvoET2U0BRbuZxWvyWgVonBDWVGw" xr:uid="{DF5C44FD-7B64-3D45-A9C2-E3D92729F6FE}"/>
+    <hyperlink ref="E17" r:id="rId45" display="https://www.google.com/url?q=https://twitter.com/IDPH&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNHEx86EuMcwIj5R7UhUPXZskS7j_w" xr:uid="{90E4745A-8926-914C-AF29-5003B6503069}"/>
+    <hyperlink ref="C18" r:id="rId46" display="https://www.google.com/url?q=https://www.in.gov/isdh/28470.htm&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNH4ha8_2vzsPKekYnapyDtxA47Mdw" xr:uid="{06396AF5-1550-4248-A385-C5BA5C65B897}"/>
+    <hyperlink ref="D18" r:id="rId47" display="https://www.google.com/url?q=https://www.in.gov/isdh/28470.htm&amp;sa=D&amp;ust=1584532676884000&amp;usg=AFQjCNH4ha8_2vzsPKekYnapyDtxA47Mdw" xr:uid="{B1F012AF-26CC-2345-981D-E7682570E43F}"/>
+    <hyperlink ref="E18" r:id="rId48" display="https://www.google.com/url?q=https://twitter.com/statehealthin&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNG69jxJrACcBwfepFr9sFYNkaW07w" xr:uid="{8C8121CD-FADF-6641-8868-26E5A4551F78}"/>
+    <hyperlink ref="C19" r:id="rId49" display="https://www.google.com/url?q=http://www.kdheks.gov/coronavirus/&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEzdqW3ElmM6cTyDZeXjUZYg_lgVQ" xr:uid="{403EA7D6-CC8C-B14C-A07C-2C4BBA2110A3}"/>
+    <hyperlink ref="D19" r:id="rId50" display="https://www.google.com/url?q=http://www.kdheks.gov/coronavirus/&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEzdqW3ElmM6cTyDZeXjUZYg_lgVQ" xr:uid="{39541E1D-22F5-B340-A059-7433B4F3D3CB}"/>
+    <hyperlink ref="E19" r:id="rId51" display="https://www.google.com/url?q=https://twitter.com/kdhe&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEaCtXEnpvsP2ZaXzRZQJIyJqw68A" xr:uid="{E36D29F4-CCAD-F945-BD7F-4F7CD36AF623}"/>
+    <hyperlink ref="C20" r:id="rId52" display="https://www.google.com/url?q=https://chfs.ky.gov/agencies/dph/Pages/covid19.aspx&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEjBmw4fN_CLFtepIFHycEU0zH1rg" xr:uid="{66A629AF-C35B-6D46-A561-69E2F38BA623}"/>
+    <hyperlink ref="D20" r:id="rId53" display="https://www.google.com/url?q=https://chfs.ky.gov/agencies/dph/Pages/covid19.aspx&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEjBmw4fN_CLFtepIFHycEU0zH1rg" xr:uid="{D212F3E9-1F9E-2A45-9590-D43785078076}"/>
+    <hyperlink ref="E20" r:id="rId54" display="https://www.google.com/url?q=https://twitter.com/CHFSKy&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEOFtp4wWwH2IRuYwvJi5fDkWz4DA" xr:uid="{41B55B8A-C4BC-FF48-B5E6-2D36893036C6}"/>
+    <hyperlink ref="C21" r:id="rId55" display="https://www.google.com/url?q=http://ldh.la.gov/Coronavirus/&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGRr9hi7xNDhbXoCoWGBSeNom3x7g" xr:uid="{0AD41B4A-4602-0144-A8BA-C22B82EF8903}"/>
+    <hyperlink ref="D21" r:id="rId56" display="https://www.google.com/url?q=http://ldh.la.gov/Coronavirus/&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGRr9hi7xNDhbXoCoWGBSeNom3x7g" xr:uid="{7AD2B767-1516-F04F-8EA1-CC2AF4215B6A}"/>
+    <hyperlink ref="E21" r:id="rId57" display="https://www.google.com/url?q=https://twitter.com/LADeptHealth&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGZ8lbBu36lc__Xt7DJMbnkENU1bA" xr:uid="{D19F049A-A6CD-1746-B9C9-3447A5C8E68F}"/>
+    <hyperlink ref="C22" r:id="rId58" display="https://www.google.com/url?q=https://www.mass.gov/info-details/covid-19-cases-quarantine-and-monitoring&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEiEYu7YV5ewkQNN6371ES_SIaBPg" xr:uid="{C8636E14-1BC0-7F4C-8410-C2CA404E947C}"/>
+    <hyperlink ref="D22" r:id="rId59" display="https://www.google.com/url?q=https://www.mass.gov/resource/information-on-the-outbreak-of-coronavirus-disease-2019-covid-19&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGFTvDpL8p2BYtLb9x-XVJUAUwCtg" xr:uid="{CB6AD355-F0D4-1C4F-961C-16EE46E3D9BB}"/>
+    <hyperlink ref="E22" r:id="rId60" display="https://www.google.com/url?q=https://twitter.com/massdph&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNHoY_YEv3pgXnxZ4xumhzBSuCQ0Zw" xr:uid="{0D74F445-5542-4746-8CD0-D8CCDC30372B}"/>
+    <hyperlink ref="C23" r:id="rId61" display="https://www.google.com/url?q=https://phpa.health.maryland.gov/Pages/Novel-coronavirus.aspx&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGMbFgFKR7ztuJebfyKCtBpRkqpWQ" xr:uid="{A4D5FFD1-FB2C-BC4C-AC02-E0EC103A0B93}"/>
+    <hyperlink ref="D23" r:id="rId62" display="https://www.google.com/url?q=https://phpa.health.maryland.gov/Pages/Novel-coronavirus.aspx&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNGMbFgFKR7ztuJebfyKCtBpRkqpWQ" xr:uid="{3F726115-CABD-2E47-86C9-B617B538FF7C}"/>
+    <hyperlink ref="E23" r:id="rId63" display="https://www.google.com/url?q=https://twitter.com/MDHealthDept&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEk2HmXrB81DeTpkz9BIOGJfpUFLQ" xr:uid="{61974295-D2A9-6A40-AACE-E9AC0473D2B6}"/>
+    <hyperlink ref="C24" r:id="rId64" display="https://www.google.com/url?q=https://www.maine.gov/dhhs/mecdc/infectious-disease/epi/airborne/coronavirus.shtml&amp;sa=D&amp;ust=1584532676885000&amp;usg=AFQjCNEx-tt9RNbXdUGGNW14qitO21oxNw" xr:uid="{57BE2D72-ECD8-324A-AC6B-147C2C9E0A8F}"/>
+    <hyperlink ref="D24" r:id="rId65" display="https://www.google.com/url?q=https://www.maine.gov/dhhs/mecdc/infectious-disease/epi/airborne/coronavirus.shtml&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNHvjHIN8FtLff7yq7Dc6L5xeZd6Gw" xr:uid="{DDACB209-7993-8844-826A-D528F0C24EF4}"/>
+    <hyperlink ref="E24" r:id="rId66" display="https://www.google.com/url?q=https://twitter.com/mainedhhs&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNHX9qqkkzQ8IuhNX3dmLHedJXo2xw" xr:uid="{4CFC02EC-DB16-C84D-BD2D-82F15C115BB8}"/>
+    <hyperlink ref="C25" r:id="rId67" display="https://www.google.com/url?q=https://www.michigan.gov/coronavirus/0,9753,7-406-98163-520743--,00.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNERoVpADwX2tjENBcde8BWcMb204g" xr:uid="{D54D17F9-4282-4D43-AB5E-4A77CA7E96BC}"/>
+    <hyperlink ref="D25" r:id="rId68" display="https://www.google.com/url?q=https://www.michigan.gov/coronavirus&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNECXf99Rg2GvBemgBJ7Ck0mHURoWg" xr:uid="{C8A90E80-E39C-814F-8E7B-E6152EFE2C7C}"/>
+    <hyperlink ref="E25" r:id="rId69" display="https://www.google.com/url?q=https://twitter.com/MichiganHHS&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFaUWrgBGaH49rORRHJOEb2hQt5Ow" xr:uid="{A793EB14-1C5E-4345-8B77-5F52C4327698}"/>
+    <hyperlink ref="C26" r:id="rId70" display="https://www.google.com/url?q=https://www.health.state.mn.us/diseases/coronavirus/situation.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFTiXepj0awHDwa2DWsQUc93rP0Uw" xr:uid="{92028131-78C7-E843-873A-2464C94CAC1A}"/>
+    <hyperlink ref="D26" r:id="rId71" display="https://www.google.com/url?q=https://www.health.state.mn.us/diseases/coronavirus/index.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFdQ8kNVs04E4_R5ZT0UkS4CiqZGw" xr:uid="{D49AEA4E-3F33-EC4F-B515-74BE342D89A5}"/>
+    <hyperlink ref="E26" r:id="rId72" display="https://www.google.com/url?q=https://twitter.com/mnhealth&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNGiKMe-85Qtc9fTXrpK1wDFn8yXJQ" xr:uid="{603ED8FE-6E2F-804E-88BE-D6D1D19E9A0D}"/>
+    <hyperlink ref="C27" r:id="rId73" display="https://www.google.com/url?q=https://health.mo.gov/living/healthcondiseases/communicable/novel-coronavirus/&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNGs1I9uIma1uPerPuVhBrxfGzghyQ" xr:uid="{5C76DD3F-BE9A-EE47-BE29-6B70A57168CE}"/>
+    <hyperlink ref="D27" r:id="rId74" display="https://www.google.com/url?q=https://health.mo.gov/living/healthcondiseases/communicable/novel-coronavirus/&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNGs1I9uIma1uPerPuVhBrxfGzghyQ" xr:uid="{07AB7B6E-7939-204D-8437-FF039200C5D2}"/>
+    <hyperlink ref="E27" r:id="rId75" display="https://www.google.com/url?q=https://twitter.com/HealthyLivingMo&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFNhHg4W6R7tNQKWAxPlbGXjZGXGA" xr:uid="{430FB356-562A-5444-8905-C5BA5AA38FA3}"/>
+    <hyperlink ref="C28" r:id="rId76" display="https://www.google.com/url?q=https://msdh.ms.gov/msdhsite/_static/14,0,420.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFWn5VLoIgIoz_WzpOGWV-1cnvCHA" xr:uid="{1AA4B45A-449A-4544-8708-ACFAD3B7F28D}"/>
+    <hyperlink ref="D28" r:id="rId77" display="https://www.google.com/url?q=https://msdh.ms.gov/msdhsite/_static/14,0,420.html&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFWn5VLoIgIoz_WzpOGWV-1cnvCHA" xr:uid="{95E64026-5814-E34D-BEB1-EF54B2FED67B}"/>
+    <hyperlink ref="E28" r:id="rId78" display="https://www.google.com/url?q=https://twitter.com/msdh&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNHv4BYcymonRk28FfMKC2ZxzpBxDQ" xr:uid="{219153E7-B8F9-1841-AFAA-C34BA4CC790C}"/>
+    <hyperlink ref="C29" r:id="rId79" display="https://www.google.com/url?q=https://dphhs.mt.gov/publichealth/cdepi/diseases/coronavirusmt&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNEjIwdgvtPkRdniBOB2sRRvK_qwbQ" xr:uid="{C4FC1845-73FE-1D4E-A660-6A5411F17E91}"/>
+    <hyperlink ref="D29" r:id="rId80" display="https://www.google.com/url?q=https://dphhs.mt.gov/publichealth/cdepi/diseases/coronavirusmt&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNEjIwdgvtPkRdniBOB2sRRvK_qwbQ" xr:uid="{3250899F-95EC-444D-9D64-45BC41591F0C}"/>
+    <hyperlink ref="E29" r:id="rId81" display="https://www.google.com/url?q=https://twitter.com/dphhsmt&amp;sa=D&amp;ust=1584532676886000&amp;usg=AFQjCNFXQxbF5zLLVCZjWW7R2fTljE6x_A" xr:uid="{CD11BACD-F6BB-A14B-95B6-D37B5F2490CB}"/>
+    <hyperlink ref="C30" r:id="rId82" display="https://www.google.com/url?q=https://www.ncdhhs.gov/covid-19-case-count-north-carolina&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFIs74s1SMlEJXauvr7QuD6uPniTQ" xr:uid="{2F78F7EB-CAD4-3F44-A7E6-BFDFC5497040}"/>
+    <hyperlink ref="D30" r:id="rId83" display="https://www.google.com/url?q=https://www.ncdhhs.gov/divisions/public-health/coronavirus-disease-2019-covid-19-response-north-carolina&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNGDSiz7yEll5lGxp_4AFCbvWarj8w" xr:uid="{9DA81CEB-7BE7-F546-8E4B-946C2DB10012}"/>
+    <hyperlink ref="E30" r:id="rId84" display="https://www.google.com/url?q=https://twitter.com/ncdhhs&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHGp3_ujGlOAAjCSN1T4Cm2OtMehA" xr:uid="{145912AC-6E0F-7746-8983-95F771A4D557}"/>
+    <hyperlink ref="C31" r:id="rId85" display="https://www.google.com/url?q=https://www.health.nd.gov/diseases-conditions/coronavirus/north-dakota-coronavirus-cases&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFO0XKhusLeI5i7-W7bNgXIYmNl7w" xr:uid="{4BADC10B-CE75-B842-BC69-6F66732D6FD7}"/>
+    <hyperlink ref="D31" r:id="rId86" display="https://www.google.com/url?q=https://www.health.nd.gov/diseases-conditions/coronavirus&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNEPTsoQ-op12wUGBB8o1ZdaULJ3Zg" xr:uid="{77D549B6-02AE-DD43-A051-0232F0E18061}"/>
+    <hyperlink ref="E31" r:id="rId87" display="https://www.google.com/url?q=https://twitter.com/NDDOH&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNF19bNqLDTOo-3I5rGcnz_0l7TANg" xr:uid="{6DB5EC63-97B4-314D-89B9-231809CC8062}"/>
+    <hyperlink ref="C32" r:id="rId88" display="https://www.google.com/url?q=http://dhhs.ne.gov/Pages/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHTrB4-8EZHUX_tb52x9NJVu5d9cA" xr:uid="{EB93B12D-77DC-8D45-BE60-96BD2B92AB49}"/>
+    <hyperlink ref="D32" r:id="rId89" display="https://www.google.com/url?q=http://dhhs.ne.gov/Pages/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHTrB4-8EZHUX_tb52x9NJVu5d9cA" xr:uid="{93EABF79-C0A2-AB4C-B81D-C77B7674CEA1}"/>
+    <hyperlink ref="E32" r:id="rId90" display="https://www.google.com/url?q=https://twitter.com/NEDHHS&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFCfsdgqbqau99mkuiDZJJekl7mVA" xr:uid="{B94B244D-249E-2346-9B40-D36B70415FC1}"/>
+    <hyperlink ref="C33" r:id="rId91" display="https://www.google.com/url?q=https://www.dhhs.nh.gov/dphs/cdcs/2019-ncov.htm&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNEX7QSckyFQ4KtJxcQ6dyF1jcnCDg" xr:uid="{8AC4A937-28C4-A245-9145-43453BC9DD79}"/>
+    <hyperlink ref="D33" r:id="rId92" display="https://www.google.com/url?q=https://www.dhhs.nh.gov/dphs/cdcs/2019-ncov.htm&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNEX7QSckyFQ4KtJxcQ6dyF1jcnCDg" xr:uid="{527C7AC1-4BBF-034D-A19E-00E535F4ACAC}"/>
+    <hyperlink ref="E33" r:id="rId93" display="https://www.google.com/url?q=https://twitter.com/NHPubHealth&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNF21DPaXnVuugiwk30kSx1--sN1uA" xr:uid="{E133F254-506E-E14D-9770-310EEEF7FB8F}"/>
+    <hyperlink ref="C34" r:id="rId94" display="https://www.google.com/url?q=https://www.nj.gov/health/&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHyAdTNPiR6KAkTpoljMGk26MB8UQ" xr:uid="{23D0912E-3251-4D42-8B86-4E474AD9D116}"/>
+    <hyperlink ref="D34" r:id="rId95" display="https://www.google.com/url?q=https://www.nj.gov/health/cd/topics/ncov.shtml&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFHLIRrdAAqiXUg_26HBOFNIUxfoQ" xr:uid="{0877C546-585D-894B-8BAD-196358AB8F5A}"/>
+    <hyperlink ref="E34" r:id="rId96" display="https://www.google.com/url?q=https://twitter.com/NJDeptofHealth&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNHH3ch4AQJvpkEgvUl14i9tEjwJ4w" xr:uid="{4C1532F8-DEB1-3941-A585-20B775BFB812}"/>
+    <hyperlink ref="C35" r:id="rId97" display="https://www.google.com/url?q=https://cv.nmhealth.org/&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFWyU8U9FkFp8plJHnLQGcNhWEGsA" xr:uid="{358C60EB-1FB2-A343-B96A-3F58A895C2DF}"/>
+    <hyperlink ref="D35" r:id="rId98" display="https://www.google.com/url?q=https://cv.nmhealth.org/&amp;sa=D&amp;ust=1584532676887000&amp;usg=AFQjCNFWyU8U9FkFp8plJHnLQGcNhWEGsA" xr:uid="{D57D352D-3EB8-7341-BCEF-909BF0F1BFD0}"/>
+    <hyperlink ref="E35" r:id="rId99" display="https://www.google.com/url?q=https://twitter.com/NMDOH&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNF_pMpUr8EbQ-4d6XvjTAm9K8lMPw" xr:uid="{0B40CC44-6BA4-4E4C-BC3B-073C4FDB2DFB}"/>
+    <hyperlink ref="C36" r:id="rId100" display="https://www.google.com/url?q=http://dpbh.nv.gov/coronavirus/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHs3DaGgbC7V_eZ3MqybxcxhN_IoA" xr:uid="{0A2C4CCE-BDD4-2648-8533-549D6C2BBCFE}"/>
+    <hyperlink ref="D36" r:id="rId101" display="https://www.google.com/url?q=http://dpbh.nv.gov/coronavirus/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHs3DaGgbC7V_eZ3MqybxcxhN_IoA" xr:uid="{39EA7969-C51E-624E-A9AE-C465E0E53C9F}"/>
+    <hyperlink ref="E36" r:id="rId102" display="https://www.google.com/url?q=https://twitter.com/dhhsnevada&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNE6ZWcjnqAP2oZmNP4eBHYGTdhAww" xr:uid="{0B7FF9EA-AB8C-EF4D-9537-58D7FF3F0331}"/>
+    <hyperlink ref="C37" r:id="rId103" display="https://www.google.com/url?q=https://coronavirus.health.ny.gov/county-county-breakdown-positive-cases&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNEtNdKxs0AwL_8_1cBGByLcVt750Q" xr:uid="{97E0A075-5AE1-1649-8133-9DBEAB8C3BB7}"/>
+    <hyperlink ref="D37" r:id="rId104" display="https://www.google.com/url?q=https://www.health.ny.gov/diseases/communicable/coronavirus/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHgvRPkWLigU59_SlI42gHjPq4_XQ" xr:uid="{39A3E5FC-D8D7-1B41-98C4-BA76EB9D39FD}"/>
+    <hyperlink ref="E37" r:id="rId105" display="https://www.google.com/url?q=https://twitter.com/healthnygov&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNF7stmv1ZQ4fRdlHMl9Bg_bnDoLvg" xr:uid="{3180BF6B-6B26-8D46-B07D-86DEF681FD60}"/>
+    <hyperlink ref="C38" r:id="rId106" display="https://www.google.com/url?q=https://coronavirus.ohio.gov/wps/portal/gov/covid-19/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNFPNomPq7ofkitEIX9pBf0i3plT2w" xr:uid="{CEE70F8A-2FA1-6147-9063-325F67E4C7EE}"/>
+    <hyperlink ref="D38" r:id="rId107" display="https://www.google.com/url?q=https://odh.ohio.gov/wps/portal/gov/odh/know-our-programs/Novel-Coronavirus/welcome/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHT4NZHkngrYF8blpds1iM3Fe4QEw" xr:uid="{AC19B6CF-5B88-024C-B732-714E0D6BB21E}"/>
+    <hyperlink ref="E38" r:id="rId108" display="https://www.google.com/url?q=https://twitter.com/OHdeptofhealth&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNFypsg5D_5T5b0jv7lfg6qQ6EuDrw" xr:uid="{0F2D1020-3CB2-CB4D-A79E-AA12D681B50A}"/>
+    <hyperlink ref="C39" r:id="rId109" display="https://www.google.com/url?q=https://coronavirus.health.ok.gov/&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNG17eRwJ6XQYC6uvr_uow5QRv_bqw" xr:uid="{A17B533B-453F-0E42-8074-3557796B378E}"/>
+    <hyperlink ref="D39" r:id="rId110" display="https://www.google.com/url?q=https://coronavirus.health.ok.gov&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNFciTUenfFRD9Vs3KMoCe2kvTcOow" xr:uid="{4AE610DE-7987-3F47-A01F-C31C7157F4E5}"/>
+    <hyperlink ref="E39" r:id="rId111" display="https://www.google.com/url?q=https://twitter.com/HealthyOklahoma&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNHyrFVSWb78fU_PYrh8nky1wImtfw" xr:uid="{5653C0E6-0692-294D-AF43-927952BFB380}"/>
+    <hyperlink ref="C40" r:id="rId112" display="https://www.google.com/url?q=https://www.oregon.gov/oha/PH/DISEASESCONDITIONS/DISEASESAZ/Pages/emerging-respiratory-infections.aspx&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNE-9FptewnSQG50li_RALIgUEEruQ" xr:uid="{1E9BFFEF-6FE2-1A4E-AB80-C888A54345E0}"/>
+    <hyperlink ref="D40" r:id="rId113" display="https://www.google.com/url?q=https://www.oregon.gov/oha/PH/DISEASESCONDITIONS/DISEASESAZ/Pages/emerging-respiratory-infections.aspx&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNE-9FptewnSQG50li_RALIgUEEruQ" xr:uid="{F3C08AD8-4928-BC4C-B119-FB3B44C8946F}"/>
+    <hyperlink ref="E40" r:id="rId114" display="https://www.google.com/url?q=https://twitter.com/OHAOregon&amp;sa=D&amp;ust=1584532676888000&amp;usg=AFQjCNFqcS6odyP-XbMUaNatPDmkHnUGEA" xr:uid="{31D4110D-BFF0-354E-AF37-6BD48AA0981B}"/>
+    <hyperlink ref="C41" r:id="rId115" display="https://www.google.com/url?q=https://www.health.pa.gov/topics/disease/Pages/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFqyFmOpVKJ4f_k3GsWVpmrmV-Tkw" xr:uid="{314458FD-3C4F-3B44-B894-6DAEA260D6E1}"/>
+    <hyperlink ref="D41" r:id="rId116" display="https://www.google.com/url?q=https://www.health.pa.gov/topics/disease/Pages/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFqyFmOpVKJ4f_k3GsWVpmrmV-Tkw" xr:uid="{C2D82166-4F6A-184B-AF31-B6E1DF6B468D}"/>
+    <hyperlink ref="E41" r:id="rId117" display="https://www.google.com/url?q=https://twitter.com/PAHealthDept&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHn3LXcA0L8-XPueUGoi7f1ar1bKw" xr:uid="{B5907DAD-8C2D-A143-B915-ACC688ECCDD1}"/>
+    <hyperlink ref="C42" r:id="rId118" display="https://www.google.com/url?q=https://health.ri.gov/data/covid-19/&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNEbzykdzGUlyT-NK6fgxhPowtFQmA" xr:uid="{04D5152C-1A97-074E-9C08-EE09DCF3EBFB}"/>
+    <hyperlink ref="D42" r:id="rId119" display="https://www.google.com/url?q=https://health.ri.gov/diseases/respiratory/?parm%3D163&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFqWtHQamY0i7CkgunBrd8x3GeU6Q" xr:uid="{AA6F182A-5BA1-A242-BAD7-E9F6C3406160}"/>
+    <hyperlink ref="E42" r:id="rId120" display="https://www.google.com/url?q=https://twitter.com/rihealth&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNGLIBa-qDb6rdrtmXYbiX2tvG8LCw" xr:uid="{FAFB0E22-DC75-BF4F-8A10-D972F7D072D5}"/>
+    <hyperlink ref="C43" r:id="rId121" display="https://www.google.com/url?q=https://scdhec.gov/health/infectious-diseases/viruses/coronavirus-disease-2019-covid-19/monitoring-testing-covid-19&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNEsPsx2RkcUO7IrMc0cMudAN5o3Zw" xr:uid="{E2AA61C8-543C-8248-B618-CFBEAD447F78}"/>
+    <hyperlink ref="D43" r:id="rId122" display="https://www.google.com/url?q=https://scdhec.gov/health/infectious-diseases/viruses/coronavirus-disease-2019-covid-19&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNGWiVI_YOsLMKAEg0reKsAiyu9rAg" xr:uid="{549BD456-577E-A34D-8D98-065DA8F68710}"/>
+    <hyperlink ref="E43" r:id="rId123" display="https://www.google.com/url?q=https://twitter.com/scdhec&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFn0AJWFe4RMltIWrNREpMPXUFsJQ" xr:uid="{1E43FAF9-FE7C-0845-983B-B53CEBAA80D4}"/>
+    <hyperlink ref="C44" r:id="rId124" display="https://www.google.com/url?q=https://doh.sd.gov/news/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHjTkJepnvGVVtCPfyHsKg6Xaxqow" xr:uid="{003A7757-2687-364F-B780-F5BA06F765CE}"/>
+    <hyperlink ref="D44" r:id="rId125" display="https://www.google.com/url?q=https://doh.sd.gov/news/Coronavirus.aspx&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHjTkJepnvGVVtCPfyHsKg6Xaxqow" xr:uid="{A2EC91B4-6978-7046-AD28-F97426959844}"/>
+    <hyperlink ref="E44" r:id="rId126" display="https://www.google.com/url?q=https://twitter.com/SDDOH&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNH1dkQT312qe7H5KKw0U4q8_BgsSg" xr:uid="{3FBB70D9-CE47-804D-B6AA-1483E2BE7F0E}"/>
+    <hyperlink ref="C45" r:id="rId127" display="https://www.google.com/url?q=https://www.tn.gov/health/cedep/ncov.html&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHRex_i9OB2Oqybj5ytE_zHbf6p_Q" xr:uid="{81413A04-8ED1-BF4F-81AA-0F218286EC15}"/>
+    <hyperlink ref="D45" r:id="rId128" display="https://www.google.com/url?q=https://www.tn.gov/health/cedep/ncov.html&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNHRex_i9OB2Oqybj5ytE_zHbf6p_Q" xr:uid="{21B03E42-8DE3-1F44-ACDB-730F6685D42F}"/>
+    <hyperlink ref="E45" r:id="rId129" display="https://www.google.com/url?q=https://twitter.com/TNDeptofHealth&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNEmmIX4gBbo3qhi8Bmh16jvMmGWIQ" xr:uid="{28638E3C-2D8C-1C4C-939D-88E8674A321E}"/>
+    <hyperlink ref="C46" r:id="rId130" display="https://www.google.com/url?q=https://dshs.texas.gov/news/updates.shtm%23coronavirus&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNGJ22gXkXg1uqAJPpTYZL7hoo2-Nw" xr:uid="{ADB1B058-9DC5-954F-A782-E2667DBCC0F9}"/>
+    <hyperlink ref="D46" r:id="rId131" display="https://www.google.com/url?q=https://dshs.texas.gov/coronavirus/&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNG5a4STKTnCZ7uO8jkLwZ6E_8KquQ" xr:uid="{CD8A10CF-A6C5-E846-B1C1-2DCA761BDED8}"/>
+    <hyperlink ref="E46" r:id="rId132" display="https://www.google.com/url?q=https://twitter.com/TexasDSHS&amp;sa=D&amp;ust=1584532676889000&amp;usg=AFQjCNFL49FUwUS86JedwqwGDB2w5EgCgA" xr:uid="{E81A1456-E054-B44C-B27F-DAFFE4A6BA6B}"/>
+    <hyperlink ref="C47" r:id="rId133" display="https://www.google.com/url?q=https://coronavirus.utah.gov/latest/&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGQNsnsfy7xFcu1s3FNN74-5AlxtQ" xr:uid="{9FC26259-DDD5-0145-BA01-5A6FFD91CF6F}"/>
+    <hyperlink ref="D47" r:id="rId134" display="https://www.google.com/url?q=https://health.utah.gov/coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNFJUvWRDAtFWBgkFWYRJq2axRpQcg" xr:uid="{30D7FA93-A1A4-2D47-B129-C9C414F5F9AF}"/>
+    <hyperlink ref="E47" r:id="rId135" display="https://www.google.com/url?q=https://twitter.com/utahdepofhealth&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNEop0sRvUbfjKxxMskhhBqia9ZlGA" xr:uid="{77A5F427-AEA2-9A49-910A-B8196C5E93F3}"/>
+    <hyperlink ref="C48" r:id="rId136" display="https://www.google.com/url?q=https://public.tableau.com/views/VirginiaCOVID-19Dashboard/VirginiaCOVID-19Dashboard?:embed%3Dyes%26:display_count%3Dyes%26:showVizHome%3Dno%26:toolbar%3Dno&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNFZWJYp0j0trW6N6qLH28I6RRytlA" xr:uid="{8BB82FEE-7E2F-034B-95FC-4B5CCD031867}"/>
+    <hyperlink ref="D48" r:id="rId137" display="https://www.google.com/url?q=http://www.vdh.virginia.gov/surveillance-and-investigation/novel-coronavirus/&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGD33HUy_5ok_7I1odLcPvJEUY2DA" xr:uid="{8D6FA8CD-6439-F041-AC61-B01A18C5F274}"/>
+    <hyperlink ref="E48" r:id="rId138" display="https://www.google.com/url?q=https://twitter.com/vdhgov&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGZNITuSc_7GSgTNFqDUsEoYolrKA" xr:uid="{50181D67-2083-3640-85BE-1C4FA4CBFA87}"/>
+    <hyperlink ref="C50" r:id="rId139" display="https://www.google.com/url?q=https://www.healthvermont.gov/response/infectious-disease/2019-novel-coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNFyE33XK59mrdWZopkQzkAiApskUw" xr:uid="{2524AC1A-5F8E-F447-A04D-363E8951DB23}"/>
+    <hyperlink ref="D50" r:id="rId140" display="https://www.google.com/url?q=https://www.healthvermont.gov/response/infectious-disease/2019-novel-coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNFyE33XK59mrdWZopkQzkAiApskUw" xr:uid="{2209A464-9300-2F40-86C0-DC29456664C7}"/>
+    <hyperlink ref="E50" r:id="rId141" display="https://www.google.com/url?q=https://twitter.com/healthvermont&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNHhjQ26l4wspq5a--0P3_tdXcbyCQ" xr:uid="{41DF9264-06EC-904E-BDCC-84662E1EA435}"/>
+    <hyperlink ref="C51" r:id="rId142" display="https://www.google.com/url?q=https://www.doh.wa.gov/Emergencies/Coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNED7UkG86oz7-xVyNG5kWpSWRKXfw" xr:uid="{5CA220EB-1744-5640-85DE-977319888439}"/>
+    <hyperlink ref="D51" r:id="rId143" display="https://www.google.com/url?q=https://www.doh.wa.gov/Emergencies/Coronavirus&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNED7UkG86oz7-xVyNG5kWpSWRKXfw" xr:uid="{16C2BD5A-635C-D448-A75B-872C09ADC609}"/>
+    <hyperlink ref="E51" r:id="rId144" display="https://www.google.com/url?q=https://twitter.com/WADeptHealth&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGNO5DvP8FumCIhWNo0XEVZD5knbw" xr:uid="{43989B4F-D1FC-6C42-8760-070559DFACE2}"/>
+    <hyperlink ref="C52" r:id="rId145" display="https://www.google.com/url?q=https://www.dhs.wisconsin.gov/outbreaks/index.htm&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNGwwpVVdzz39htaRKWR7tH8eCKERA" xr:uid="{008BCA9B-B400-D046-825F-33D4205276A1}"/>
+    <hyperlink ref="D52" r:id="rId146" display="https://www.google.com/url?q=https://www.dhs.wisconsin.gov/disease/covid-19.htm&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNF-9M4CysksmVC-yRsE4lQHdaQqdQ" xr:uid="{F7A2CFB4-3CB5-D041-B57E-7BE1C86169B6}"/>
+    <hyperlink ref="E52" r:id="rId147" display="https://www.google.com/url?q=https://twitter.com/DHSWI&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNEzZAFpA5FvBc6wAPG2wMxEfCDrFg" xr:uid="{2C5B2270-6CBD-B24B-B62F-5D4C30603720}"/>
+    <hyperlink ref="C53" r:id="rId148" display="https://www.google.com/url?q=https://dhhr.wv.gov/Coronavirus%2520Disease-COVID-19/Pages/default.aspx&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNH38VjXOfww8txdxHikg9JyTOBQBw" xr:uid="{8C2F01BC-3B64-3542-814D-7728A4587C02}"/>
+    <hyperlink ref="D53" r:id="rId149" display="https://www.google.com/url?q=https://dhhr.wv.gov/Coronavirus%2520Disease-COVID-19/Pages/default.aspx&amp;sa=D&amp;ust=1584532676890000&amp;usg=AFQjCNH38VjXOfww8txdxHikg9JyTOBQBw" xr:uid="{2E44105A-CE00-1842-861C-88C6A33D9131}"/>
+    <hyperlink ref="E53" r:id="rId150" display="https://www.google.com/url?q=https://twitter.com/WV_DHHR&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFXF0pSWMvl5AenTNLHyj4sJK5-8A" xr:uid="{94C829D1-348B-AC49-804F-1B8FB7F850D3}"/>
+    <hyperlink ref="C54" r:id="rId151" display="https://www.google.com/url?q=https://health.wyo.gov/publichealth/infectious-disease-epidemiology-unit/disease/novel-coronavirus/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNEkXnKCs-txqGQW3EuC1i376Op0ZA" xr:uid="{0F3C098F-A962-0E42-B098-9B7D3FC64F24}"/>
+    <hyperlink ref="D54" r:id="rId152" display="https://www.google.com/url?q=https://health.wyo.gov/publichealth/infectious-disease-epidemiology-unit/disease/novel-coronavirus/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNEkXnKCs-txqGQW3EuC1i376Op0ZA" xr:uid="{9E452583-2698-9A43-AB05-1B4B3F4461C4}"/>
+    <hyperlink ref="E54" r:id="rId153" display="https://www.google.com/url?q=https://twitter.com/health_wyoming&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFZ2dLT2FnMR_Zktux5FEtm_XrPww" xr:uid="{23D5C9E3-61CE-D347-86FB-970D0BD4E8EE}"/>
+    <hyperlink ref="C55" r:id="rId154" display="https://www.google.com/url?q=http://www.salud.gov.pr/Pages/coronavirus.aspx&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNEOycciUQYtEN7YeMewe2fpaFliqQ" xr:uid="{17453822-7AC3-6943-B2DF-12265218F75B}"/>
+    <hyperlink ref="D55" r:id="rId155" display="https://www.google.com/url?q=http://www.salud.gov.pr/Pages/coronavirus.aspx&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNEOycciUQYtEN7YeMewe2fpaFliqQ" xr:uid="{C5C3CED7-AF91-2D41-9F93-207EBE1CDD8D}"/>
+    <hyperlink ref="E55" r:id="rId156" display="https://www.google.com/url?q=https://twitter.com/DeptSaludPR?s%3D20&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNE6wWhx_SLSeOggZSuiOXpOTbB8zg" xr:uid="{8F41011E-3A9D-0B49-BEE3-1DFECFDBD32B}"/>
+    <hyperlink ref="C56" r:id="rId157" display="https://www.google.com/url?q=https://doh.vi.gov/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNH935a9c_wLDnQh4h6ByRetd85ECA" xr:uid="{98082CD3-B641-DF43-86A8-5647C4760068}"/>
+    <hyperlink ref="D56" r:id="rId158" display="https://www.google.com/url?q=https://doh.vi.gov/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNH935a9c_wLDnQh4h6ByRetd85ECA" xr:uid="{85807A0B-B856-114F-8C72-2C7EF9D36837}"/>
+    <hyperlink ref="E56" r:id="rId159" display="https://www.google.com/url?q=https://twitter.com/usvidoh&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFEq7ZgnaQmAPi9JRoJFh4fApkx0g" xr:uid="{E3C4FED9-E19F-1A4B-8FD4-8F45AD74A5B4}"/>
+    <hyperlink ref="C57" r:id="rId160" display="https://www.google.com/url?q=https://ghs.guam.gov/coronavirus-covid-19&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNHUuYOWMbY8a5pwTRTv1o4bHXd0Uw" xr:uid="{91DDA838-8049-824E-A203-1C293FFA1C38}"/>
+    <hyperlink ref="D57" r:id="rId161" display="https://www.google.com/url?q=https://ghs.guam.gov/coronavirus-covid-19&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNHUuYOWMbY8a5pwTRTv1o4bHXd0Uw" xr:uid="{C4DA60AD-A153-DD4D-998C-36404310BDCB}"/>
+    <hyperlink ref="E57" r:id="rId162" display="https://www.google.com/url?q=https://twitter.com/guamdphss?lang%3Den&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNG2mM-zPDZlrCDz4dHX3MIpzxml-A" xr:uid="{3BD23CF4-D7EB-E547-B29D-55BF9F190BE1}"/>
+    <hyperlink ref="C58" r:id="rId163" display="https://www.google.com/url?q=https://www.chcc.gov.mp/coronavirusinformation.php&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFzmzlgHJrLKbwYKUfDnaoTSjZFFg" xr:uid="{5745A278-B32E-994F-B130-48000791079F}"/>
+    <hyperlink ref="D58" r:id="rId164" display="https://www.google.com/url?q=https://www.chcc.gov.mp/coronavirusinformation.php&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNFzmzlgHJrLKbwYKUfDnaoTSjZFFg" xr:uid="{7D906078-3E11-0B4D-A0CF-1108EB6B8C49}"/>
+    <hyperlink ref="E58" r:id="rId165" display="https://www.google.com/url?q=https://twitter.com/cnmichcc&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNGnC4KbRhP-g5_8hKoWMmFapxzOQg" xr:uid="{49B7B5C6-4D7E-BE48-B095-DE234233FF82}"/>
+    <hyperlink ref="C59" r:id="rId166" display="https://www.google.com/url?q=http://www.samoagovt.ws/2020/03/ministry-of-health-coronavirus-covid-19-update-14-march-2020/&amp;sa=D&amp;ust=1584532676891000&amp;usg=AFQjCNGbUip_mipWCIO2P0VQZI-lu-LvGw" xr:uid="{61119CE0-F2BC-BB4F-810D-9592944C00C6}"/>
+    <hyperlink ref="D59" r:id="rId167" display="https://www.google.com/url?q=http://www.samoagovt.ws/2020/03/ministry-of-health-coronavirus-covid-19-update-14-march-2020/&amp;sa=D&amp;ust=1584532676892000&amp;usg=AFQjCNFzK4Aqa-BHGZG_DiaPEVwaI6b8oQ" xr:uid="{E651EE98-BDBB-BF44-ADFA-C75BF48119A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22309,6 +22344,5 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>